--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -5962,12 +5962,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego em sub-redes, bem como tráfego leste/oeste em toda a plataforma (tráfego entre zonas de pouso).</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões recebidas em sua rede, considere usar o Azure AD Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5984,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível sub-rede para ajudar a proteger VMs de vários níveis dentro da zona de pouso.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego em sub-redes, bem como tráfego leste/oeste em toda a plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,7 +6034,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
@@ -6046,7 +6046,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microsegmentar o tráfego dentro da zona de pouso e evite usar um NVA central para filtrar fluxos de tráfego.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível sub-rede para ajudar a proteger VMs de vários níveis dentro da zona de pouso.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6084,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6096,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Habilite os registros de fluxo do NSG e alimente-os para o Traffic Analytics para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microsegmentar o tráfego dentro da zona de pouso e evite usar um NVA central para filtrar fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,14 +6139,14 @@
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de pouso.</t>
+          <t>Habilite os registros de fluxo do NSG e alimente-os para o Traffic Analytics para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6189,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Para topologias virtuais de WAN, o tráfego de rotas através de zonas de pouso via Firewall Azure se a organização exigir recursos de filtragem e registro para o tráfego fluindo através de zonas de pouso.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de pouso.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6239,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6262,12 +6262,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Para topologias virtuais de WAN, o tráfego de rotas através de zonas de pouso via Firewall Azure se a organização exigir recursos de filtragem e registro para o tráfego fluindo através de zonas de pouso.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6287,12 +6287,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6313,7 +6317,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Se o tráfego entre as regiões do Azure deve ser criptografado, use o peering global VNet para conectar redes virtuais em todas as regiões.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6330,19 +6334,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários virtuais de WAN, onde o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway Virtual WAN VPN para estabelecer túneis IPsec sobre o peering privado ExpressRoute. </t>
+          <t>Se o tráfego entre as regiões do Azure deve ser criptografado, use o peering global VNet para conectar redes virtuais em todas as regiões.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,7 +6380,7 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6392,7 +6392,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f16</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use pacotes de observador de rede para capturar, apesar da janela de captura limitada.</t>
+          <t xml:space="preserve">Para cenários virtuais de WAN, onde o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway Virtual WAN VPN para estabelecer túneis IPsec sobre o peering privado ExpressRoute. </t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,19 +6430,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos registros de fluxo do NSG fornece o nível de detalhes que você precisa.</t>
+          <t>Use pacotes de observador de rede para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,14 +6480,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6508,7 +6513,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que requerem inspeção profunda de pacotes.</t>
+          <t>Avalie se a versão mais recente dos registros de fluxo do NSG fornece o nível de detalhes que você precisa.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6525,7 +6530,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6533,7 +6538,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6554,7 +6559,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a encorajamos em escala devido à complexidade e às questões de suporte que podem surgir.</t>
+          <t>Use soluções de parceiros para cenários que requerem inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6571,14 +6576,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6589,17 +6594,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e Conectividade de Rede</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use um único monitor logs workspace para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em papel do Azure (Azure RBAC), requisitos de soberania de dados ou políticas de retenção de dados mandam espaços de trabalho separados.</t>
+          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a encorajamos em escala devido à complexidade e às questões de suporte que podem surgir.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6616,19 +6621,15 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6649,7 +6650,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Use um único monitor logs workspace para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em papel do Azure (Azure RBAC), requisitos de soberania de dados ou políticas de retenção de dados mandam espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6664,13 +6665,21 @@
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6691,7 +6700,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Os logs de exportação para o Armazenamento Azure se os requisitos de retenção de log excederem dois anos. Use armazenamento imutável com uma política de gravação-uma-vez, leia-muitas para tornar os dados não apagados e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6706,21 +6715,13 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H122" s="16" t="n"/>
+      <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6741,7 +6742,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
+          <t>Os logs de exportação para o Armazenamento Azure se os requisitos de retenção de log excederem dois anos. Use armazenamento imutável com uma política de gravação-uma-vez, leia-muitas para tornar os dados não apagados e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6770,7 +6771,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6791,7 +6792,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Monitore a configuração da máquina virtual in-guest (VM) drift usando a Política Azure. Habilitar recursos de auditoria de configuração de hóspedes por meio de políticas ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6808,19 +6809,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6841,7 +6842,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Update Management em Automação Azure como um mecanismo de patching de longo prazo para VMs Windows e Linux. </t>
+          <t>Monitore a configuração da máquina virtual in-guest (VM) drift usando a Política Azure. Habilitar recursos de auditoria de configuração de hóspedes por meio de políticas ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6858,19 +6859,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Use o Network Watcher para monitorar proativamente os fluxos de tráfego</t>
+          <t xml:space="preserve">Use o Update Management em Automação Azure como um mecanismo de patching de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6908,19 +6909,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6941,7 +6942,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Use o Network Watcher para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6958,19 +6959,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6991,7 +6992,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de papel do Azure. A combinação de políticas de negação e atribuições de papel do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7008,14 +7009,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,7 +7042,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Inclua eventos de saúde de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a saúde do serviço e dos recursos sob a perspectiva da plataforma é um componente importante da gestão de recursos no Azure.</t>
+          <t>Use políticas de negação para complementar as atribuições de papel do Azure. A combinação de políticas de negação e atribuições de papel do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7053,14 +7059,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7081,7 +7087,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma Azure Service Health para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Inclua eventos de saúde de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a saúde do serviço e dos recursos sob a perspectiva da plataforma é um componente importante da gestão de recursos no Azure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7098,14 +7104,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7126,7 +7132,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Não envie entradas de log bruto de volta para sistemas de monitoramento no local. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se for necessária a integração do SIEM no local, envie alertas críticos em vez de logs.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma Azure Service Health para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7143,14 +7149,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas dos recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o Azure RBAC.</t>
+          <t>Não envie entradas de log bruto de volta para sistemas de monitoramento no local. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se for necessária a integração do SIEM no local, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7188,14 +7194,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7216,7 +7222,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use logs do Azure Monitor para obter informações e relatórios.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas dos recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o Azure RBAC.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7233,14 +7239,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7261,7 +7267,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhada dentro da zona de pouso para armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use logs do Azure Monitor para obter informações e relatórios.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7278,14 +7284,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7306,7 +7312,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhada dentro da zona de pouso para armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7323,14 +7329,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7351,7 +7357,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Empregue cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7368,14 +7374,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7396,7 +7402,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres de serviço PaaS.</t>
+          <t>Empregue cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7413,14 +7419,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7441,7 +7447,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Azure Backup e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres de serviço PaaS.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7458,14 +7464,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7476,23 +7482,23 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
+          <t>Use recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Azure Backup e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7503,14 +7509,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7531,13 +7537,13 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes cofres de chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transações e restringir o acesso a segredos.</t>
+          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7548,14 +7554,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7576,7 +7582,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
+          <t>Use diferentes cofres de chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transações e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7593,14 +7599,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7621,7 +7627,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégio mínimo limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas do Azure Active Directory (Azure AD) personalizadas.</t>
+          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7645,7 +7651,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7666,7 +7672,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gestão e renovação de certificados com as autoridades públicas de certificados para facilitar a administração.</t>
+          <t>Siga um modelo de privilégio mínimo limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas do Azure Active Directory (Azure AD) personalizadas.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,7 +7696,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7711,7 +7717,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Automatize o processo de gestão e renovação de certificados com as autoridades públicas de certificados para facilitar a administração.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7735,7 +7741,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7756,7 +7762,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Habilite o ponto final do serviço de rede virtual e firewall ou ponto final privado no cofre para controlar o acesso ao cofre da chave.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7780,7 +7786,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7801,7 +7807,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar a chave, o certificado e o uso secreto em cada instância do Key Vault.</t>
+          <t>Habilite o ponto final do serviço de rede virtual e firewall ou ponto final privado no cofre para controlar o acesso ao cofre da chave.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7818,14 +7824,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7846,7 +7852,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>A instantaneidade do Projeto de Lei do Cofre de Chaves e o acesso privilegiado e o uso da Política Azure para impor uma configuração consistente em conformidade.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar a chave, o certificado e o uso secreto em cada instância do Key Vault.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7863,14 +7869,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7891,7 +7897,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>A instantaneidade do Projeto de Lei do Cofre de Chaves e o acesso privilegiado e o uso da Política Azure para impor uma configuração consistente em conformidade.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7908,14 +7914,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7936,7 +7942,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
+          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7953,14 +7959,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7981,7 +7987,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implementar mitigação relevante para que as inconsistências não atuem os resultados desejados. Escolha pares de regiões apropriadas e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8005,7 +8011,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8021,18 +8027,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Alavancar a Política Azure</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implementar mitigação relevante para que as inconsistências não atuem os resultados desejados. Escolha pares de regiões apropriadas e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8043,14 +8049,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8071,13 +8077,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Identifique as tags Azure necessárias e use o modo de política de apêndice para impor o uso.</t>
+          <t>Alavancar a Política Azure</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8088,14 +8094,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8116,7 +8122,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Mapear os requisitos regulatórios e de conformidade para definições de políticas azure e atribuições de papéis do Azure.</t>
+          <t>Identifique as tags Azure necessárias e use o modo de política de apêndice para impor o uso.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8133,14 +8139,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8161,7 +8167,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça definições de políticas Azure no grupo de gerenciamento de raízes de alto nível para que possam ser atribuídos em escopos herdados</t>
+          <t>Mapear os requisitos regulatórios e de conformidade para definições de políticas azure e atribuições de papéis do Azure.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8185,7 +8191,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8206,7 +8212,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no mais alto nível apropriado com exclusões em níveis inferiores, se necessário</t>
+          <t>Estabeleça definições de políticas Azure no grupo de gerenciamento de raízes de alto nível para que possam ser atribuídos em escopos herdados</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8230,7 +8236,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8251,13 +8257,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use a Política Azure para controlar registros de provedores de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Gerenciar atribuições de políticas no mais alto nível apropriado com exclusões em níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8275,7 +8281,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8296,13 +8302,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use políticas incorporadas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Use a Política Azure para controlar registros de provedores de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8320,7 +8326,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8341,7 +8347,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Atribua o papel de contribuinte de políticas incorporada em um escopo específico para permitir a governança em nível de aplicativo.</t>
+          <t>Use políticas incorporadas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8365,7 +8371,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8386,7 +8392,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de atribuições de políticas do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento através de exclusões em escopos herdados.</t>
+          <t>Atribua o papel de contribuinte de políticas incorporada em um escopo específico para permitir a governança em nível de aplicativo.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8410,7 +8416,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8431,7 +8437,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software através de extensões VM e impor uma configuração VM de linha de base compatível.</t>
+          <t>Limitar o número de atribuições de políticas do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento através de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8455,7 +8461,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8476,7 +8482,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>A configuração de segurança do Monitor VM deriva através da Política Azure.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software através de extensões VM e impor uma configuração VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8500,7 +8506,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8516,12 +8522,12 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>A configuração de segurança do Monitor VM deriva através da Política Azure.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8538,14 +8544,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8566,7 +8572,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para logs de monitor do Azure para retenção de dados de longo prazo. Exportar para o Armazenamento Azure para armazenamento a longo prazo após dois anos, se necessário.</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8583,14 +8589,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Exporte logs de atividade do Azure para logs de monitor do Azure para retenção de dados de longo prazo. Exportar para o Armazenamento Azure para armazenamento a longo prazo após dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8628,14 +8634,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8656,7 +8662,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Monitore a deriva de correção do sistema operacional base através de Logs de Monitor Azure e Defender for Cloud.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8680,7 +8686,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8701,7 +8707,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Monitore a deriva de correção do sistema operacional base através de Logs de Monitor Azure e Defender for Cloud.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8718,14 +8724,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8746,7 +8752,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir a produção.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8763,14 +8769,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8791,7 +8797,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Implementar uma abordagem de confiança zero para acesso à plataforma Azure, quando for o caso.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir a produção.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8808,14 +8814,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8836,7 +8842,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Planeje como novos serviços azure serão implementados</t>
+          <t>Implementar uma abordagem de confiança zero para acesso à plataforma Azure, quando for o caso.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8853,14 +8859,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8881,7 +8887,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Planeje como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Planeje como novos serviços azure serão implementados</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8905,7 +8911,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8914,15 +8920,45 @@
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Planeje como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10981,7 +11017,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F171" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -5884,12 +5884,12 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2117,7 +2117,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -7048,7 +7048,7 @@
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -11016,7 +11016,19 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1795,17 +1795,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Identidade e Acesso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Assinaturas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gestão razoavelmente plana com não mais do que três a quatro níveis, idealmente</t>
+          <t>Evite usar contas sincronizadas no local para atribuições de papel do Azure AD.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1822,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Aplicar ou anexar tags de recursos através da Política Azure</t>
+          <t>Impor hierarquia de grupo de gestão razoavelmente plana com não mais do que três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1872,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Imponha um grupo de gerenciamento de caixas de areia para permitir que os usuários experimentem imediatamente com o Azure</t>
+          <t>Aplicar ou anexar tags de recursos através da Política Azure</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1922,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Imponha um grupo de gerenciamento de plataformas sob o grupo de gerenciamento raiz para apoiar a política de plataforma comum e a atribuição de papel do Azure</t>
+          <t>Imponha um grupo de gerenciamento de caixas de areia para permitir que os usuários experimentem imediatamente com o Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub Azure Virtual WAN, DNS (Domain Name System, sistema de nomes de domínio privado), circuito ExpressRoute e outros recursos de rede.</t>
+          <t>Imponha um grupo de gerenciamento de plataformas sob o grupo de gerenciamento raiz para apoiar a política de plataforma comum e a atribuição de papel do Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Não impor assinaturas são colocadas sob o grupo de gerenciamento raiz</t>
+          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub Azure Virtual WAN, DNS (Domain Name System, sistema de nomes de domínio privado), circuito ExpressRoute e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2072,14 +2072,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Imponha que apenas usuários privilegiados possam operar grupos de gerenciamento no inquilino, permitindo a autorização do Azure RBAC nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Não impor assinaturas são colocadas sob o grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2117,14 +2122,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Imponha grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Imponha que apenas usuários privilegiados possam operar grupos de gerenciamento no inquilino, permitindo a autorização do Azure RBAC nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2162,14 +2167,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2190,13 +2195,13 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Impor um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão orçamentária, conformidade com a política e correção quando necessário.</t>
+          <t>Imponha grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2214,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2235,13 +2240,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enusre que todos os proprietários de assinaturas e a equipe do núcleo de TI estão cientes das limitações de suporte de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Impor um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão orçamentária, conformidade com a política e correção quando necessário.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2252,14 +2257,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2280,13 +2285,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Impor o uso de instâncias reservadas para priorizar a capacidade reservada nas regiões requeridas. Em seguida, a carga horária terá a capacidade necessária mesmo quando houver uma alta demanda por esse recurso em uma região específica.</t>
+          <t>Enusre que todos os proprietários de assinaturas e a equipe do núcleo de TI estão cientes das limitações de suporte de assinatura como parte das sessões de design de carga de trabalho.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2297,19 +2302,15 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I32" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Imponha um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Impor o uso de instâncias reservadas para priorizar a capacidade reservada nas regiões requeridas. Em seguida, a carga horária terá a capacidade necessária mesmo quando houver uma alta demanda por esse recurso em uma região específica.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2347,19 +2348,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2380,13 +2381,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas</t>
+          <t>Imponha um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2397,19 +2398,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2430,13 +2431,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Impor um processo de gestão de custos</t>
+          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2447,19 +2448,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2480,13 +2481,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Se aD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento da Plataforma para hospedar controladores de domínio do Windows Server Active Directory</t>
+          <t>Impor um processo de gestão de custos</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2497,19 +2498,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Garantir que as etiquetas sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Se aD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento da Plataforma para hospedar controladores de domínio do Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2547,19 +2548,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2570,17 +2571,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Grupo de Gestão e Assinaturas</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Assinaturas</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de não haver espaços de endereço IP sobrepostos em todas as regiões do Azure e locais no local</t>
+          <t>Garantir que as etiquetas sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2597,19 +2598,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Certifique-se de não haver espaços de endereço IP sobrepostos em todas as regiões do Azure e locais no local</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2659,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo /16) </t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2709,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que não há faixa de endereço IP público (bloco CIDR) para VNETs, especialmente se não for propriedade de sua organização</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2759,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Evite usar faixas de endereço IP sobrepostas para locais de produção e DR.</t>
+          <t>Certifique-se de que não há faixa de endereço IP público (bloco CIDR) para VNETs, especialmente se não for propriedade de sua organização</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2797,19 +2798,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes onde a resolução de nomes no Azure é tudo o que é necessário, use O Azure Private DNS para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Evite usar faixas de endereço IP sobrepostas para locais de produção e DR.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2847,7 +2848,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
@@ -2859,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes onde a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado do Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Configure as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Para ambientes onde a resolução de nomes no Azure é tudo o que é necessário, use O Azure Private DNS para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2909,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que requerem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes onde a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado do Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Configure as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,13 +2949,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático do Azure DNS para gerenciar automaticamente o ciclo de vida dos registros de DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Cargas de trabalho especiais que requerem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,19 +2998,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3020,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Considere o VIRTUAL WAN para gerenciamento simplificado de rede do Azure e certifique-se de que seu cenário seja explicitamente descrito na lista de projetos de roteamento VIRTUAL WAN</t>
+          <t>Habilite o registro automático do Azure DNS para gerenciar automaticamente o ciclo de vida dos registros de DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3042,19 +3044,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use um hub virtual wan por região do Azure para conectar várias zonas de pouso em todas as regiões do Azure através de um WAN virtual global comum.</t>
+          <t>Considere o VIRTUAL WAN para gerenciamento simplificado de rede do Azure e certifique-se de que seu cenário seja explicitamente descrito na lista de projetos de roteamento VIRTUAL WAN</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3092,14 +3094,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3120,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de roteamento do Hub Virtual para aumentar ainda mais o tráfego entre VNets e filiais.</t>
+          <t>Use um hub virtual wan por região do Azure para conectar várias zonas de pouso em todas as regiões do Azure através de um WAN virtual global comum.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3144,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Conecte hubs VIRTUAIS WAN a datacenters no local usando o ExpressRoute</t>
+          <t>Use os recursos de roteamento do Hub Virtual para aumentar ainda mais o tráfego entre VNets e filiais.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3185,16 +3192,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub virtual WAN mais próximo via VPN local-a-site ou habilite a conectividade de filiais ao VIRTUAL WAN através de uma solução de parceiro SD-WAN.</t>
+          <t>Conecte hubs VIRTUAIS WAN a datacenters no local usando o ExpressRoute</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN virtual através de uma VPN ponto a ponto.</t>
+          <t>Conecte filiais e locais remotos ao hub virtual WAN mais próximo via VPN local-a-site ou habilite a conectividade de filiais ao VIRTUAL WAN através de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3294,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio 'tráfego no Azure permanece no Azure' para que a comunicação entre os recursos no Azure ocorra através da rede backbone da Microsoft</t>
+          <t>Conecte os usuários ao hub WAN virtual através de uma VPN ponto a ponto.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3333,13 +3336,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Para proteger e filtrar de tráfego na Internet de saída, implante o Azure Firewall</t>
+          <t>Siga o princípio 'tráfego no Azure permanece no Azure' para que a comunicação entre os recursos no Azure ocorra através da rede backbone da Microsoft</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3380,16 +3388,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs no VWAN, verifique a configuração com a orientação do fornecedor parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Para proteger e filtrar de tráfego na Internet de saída, implante o Azure Firewall</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3428,13 +3432,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os recursos do Azure Virtual WAN e do Firewall Azure sejam criados na assinatura de conectividade.</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs no VWAN, verifique a configuração com a orientação do fornecedor parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3479,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que a arquitetura de rede está dentro dos limites do Azure Virtual WAN.</t>
+          <t>Certifique-se de que os recursos do Azure Virtual WAN e do Firewall Azure sejam criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3517,14 +3526,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3545,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights for Virtual WAN para monitorar a topologia completa da WAN virtual, status e métricas-chave.</t>
+          <t>Certifique-se de que a arquitetura de rede está dentro dos limites do Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3562,14 +3571,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3585,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia tradicional de rede hub-and-spoke para os seguintes cenários: uma arquitetura de rede implantada dentro de uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de pouso em todas as regiões; uma arquitetura de rede que abrange várias regiões do Azure com pares globais de VNet usados para conectar redes virtuais em regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é o ExpressRoute, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Use o Azure Monitor Insights for Virtual WAN para monitorar a topologia completa da WAN virtual, status e métricas-chave.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3607,19 +3616,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Garanta que os serviços compartilhados, incluindo gateways ExpressRoute, gateways VPN e Firewall Azure ou NVAs parceiros na rede virtual central. Se necessário, também implante controladores de domínio active Directory e servidores DNS.</t>
+          <t>Considere um design de rede baseado na topologia tradicional de rede hub-and-spoke para os seguintes cenários: uma arquitetura de rede implantada dentro de uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de pouso em todas as regiões; uma arquitetura de rede que abrange várias regiões do Azure com pares globais de VNet usados para conectar redes virtuais em regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é o ExpressRoute, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3657,14 +3661,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga a orientação do fornecedor parceiro</t>
+          <t>Garanta que os serviços compartilhados, incluindo gateways ExpressRoute, gateways VPN e Firewall Azure ou NVAs parceiros na rede virtual central. Se necessário, também implante controladores de domínio active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3702,14 +3711,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Azure Application Gateway, como um serviço compartilhado na rede virtual central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de pouso.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga a orientação do fornecedor parceiro</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3747,14 +3756,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways ExpressRoute e VPN, use o Azure Route Server.</t>
+          <t>Não implante serviços L7 de entrada, como o Azure Application Gateway, como um serviço compartilhado na rede virtual central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de pouso.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3792,7 +3801,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3800,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub-and-spoke em todas as regiões do Azure, use o Global Virtual Network Peering para conectar redes virtuais da zona de pouso quando um pequeno número de zonas de pouso precisa se comunicar entre regiões. </t>
+          <t>Se você precisar de trânsito entre gateways ExpressRoute e VPN, use o Azure Route Server.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3838,19 +3847,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,7 +3876,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implantar uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de pouso em todas as regiões é necessária, use o ExpressRoute com circuitos duplos para fornecer conectividade de trânsito para redes virtuais da zona de pouso em todas as regiões do Azure. </t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub-and-spoke em todas as regiões do Azure, use o Global Virtual Network Peering para conectar redes virtuais da zona de pouso quando um pequeno número de zonas de pouso precisa se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3888,19 +3893,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Quando você implantar uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de pouso em todas as regiões é necessária, use o ExpressRoute com circuitos duplos para fornecer conectividade de trânsito para redes virtuais da zona de pouso em todas as regiões do Azure. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3938,19 +3943,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke para a rede virtual central hub, considere os limites de peering da VNet e o número máximo de prefixos que podem ser anunciados via ExpressRoute</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3988,15 +3993,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4012,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e falou</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que você investigou a possibilidade de usar o ExpressRoute como conexão primária com o Azure.</t>
+          <t>Ao conectar redes virtuais spoke para a rede virtual central hub, considere os limites de peering da VNet e o número máximo de prefixos que podem ser anunciados via ExpressRoute</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4034,19 +4043,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Quando você usar vários circuitos ExpressRoute ou vários locais no prem, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Certifique-se de que você investigou a possibilidade de usar o ExpressRoute como conexão primária com o Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4084,7 +4089,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4096,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando o SKU certo para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Quando você usar vários circuitos ExpressRoute ou vários locais no prem, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4146,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway ExpressRoute redundante de zona nas regiões do Azure suportadas.</t>
+          <t>Certifique-se de que você está usando o SKU certo para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4184,7 +4189,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4196,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que requerem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Implante um gateway ExpressRoute redundante de zona nas regiões do Azure suportadas.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4234,7 +4239,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4246,7 +4251,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Quando a baixa latência é necessária ou a transferência de on-premises para o Azure deve ser superior a 10 Gbps, permita que o FastPath contorne o gateway ExpressRoute a partir do caminho de dados.</t>
+          <t>Para cenários que requerem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4284,7 +4289,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4296,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar ramos ou locais remotos ao Azure. Para maior resiliência, implante gateways redundantes de zona (quando disponível).</t>
+          <t>Quando a baixa latência é necessária ou a transferência de on-premises para o Azure deve ser superior a 10 Gbps, permita que o FastPath contorne o gateway ExpressRoute a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4346,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use o ExpressRoute Global Reach para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via ExpressRoute.</t>
+          <t>Use gateways VPN para conectar ramos ou locais remotos ao Azure. Para maior resiliência, implante gateways redundantes de zona (quando disponível).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4384,7 +4389,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4396,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessário isolamento de tráfego ou largura de banda dedicada, como separar ambientes de produção e não produção, use diferentes circuitos ExpressRoute. Ele ajudará você a garantir domínios isolados de roteamento e aliviar riscos de vizinhos barulhentos.</t>
+          <t>Use o ExpressRoute Global Reach para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4434,7 +4439,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4446,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando métricas incorporadas do Azure Monitor.</t>
+          <t>Quando for necessário isolamento de tráfego ou largura de banda dedicada, como separar ambientes de produção e não produção, use diferentes circuitos ExpressRoute. Ele ajudará você a garantir domínios isolados de roteamento e aliviar riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4484,7 +4489,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4496,7 +4501,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando métricas incorporadas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4534,7 +4539,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4546,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos ExpressRoute de um único local de observação. Isso cria um único ponto de falha e torna a organização suscetível a paralisações de localização.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4584,7 +4589,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4596,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4612,12 +4617,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada para serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Não use explicitamente circuitos ExpressRoute de um único local de observação. Isso cria um único ponto de falha e torna a organização suscetível a paralisações de localização.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4634,19 +4639,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Os serviços Azure PaaS que foram injetados em uma rede virtual ainda realizam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Se você precisar de comunicação privada para serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,14 +4694,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Use o Private Link, quando disponível, para serviços Azure PaaS compartilhados.</t>
+          <t>Os serviços Azure PaaS que foram injetados em uma rede virtual ainda realizam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4734,19 +4739,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços Azure PaaS a partir de locais via ExpressRoute peering privado. Esse método evita transitar pela internet pública.</t>
+          <t>Use o Private Link, quando disponível, para serviços Azure PaaS compartilhados.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,14 +4794,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Use pontos finais de serviço de rede virtual quando o Private Link não estiver disponível</t>
+          <t>Acesse os serviços Azure PaaS a partir de locais via ExpressRoute peering privado. Esse método evita transitar pela internet pública.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,14 +4844,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos finais de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Use pontos finais de serviço de rede virtual quando o Private Link não estiver disponível</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4896,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos finais de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use filtragem de NVA.</t>
+          <t>Não habilite pontos finais de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4946,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Não implemente túneis forçados para permitir a comunicação dos recursos do Azure para o Azure.</t>
+          <t>Não use pontos finais de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use filtragem de NVA.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4996,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5012,12 +5017,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use o Firewall Azure para governar o tráfego de saída do Azure para a internet, conexões de entrada não-HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Não implemente túneis forçados para permitir a comunicação dos recursos do Azure para o Azure.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,14 +5044,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use o Firewall Manager com WAN virtual para implantar e gerenciar firewalls do Azure em hubs VIRTUAIS WAN ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral tanto para redes virtuais de WAN quanto para redes virtuais regulares.</t>
+          <t>Use o Firewall Azure para governar o tráfego de saída do Azure para a internet, conexões de entrada não-HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5084,7 +5089,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
@@ -5096,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Azure Firewall para governar a postura de segurança em todo o ambiente de rede global e atribua-as a todas as instâncias do Azure Firewall. Permitir que políticas granulares atendam aos requisitos de regiões específicas, delegando políticas incrementais de firewall para equipes de segurança locais através do controle de acesso baseado em papéis do Azure.</t>
+          <t>Use o Firewall Manager com WAN virtual para implantar e gerenciar firewalls do Azure em hubs VIRTUAIS WAN ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral tanto para redes virtuais de WAN quanto para redes virtuais regulares.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5146,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure os provedores de segurança SaaS parceiros suportados dentro do Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Crie uma política global do Azure Firewall para governar a postura de segurança em todo o ambiente de rede global e atribua-as a todas as instâncias do Azure Firewall. Permitir que políticas granulares atendam aos requisitos de regiões específicas, delegando políticas incrementais de firewall para equipes de segurança locais através do controle de acesso baseado em papéis do Azure.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5196,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF dentro de uma rede virtual de zona de pouso para proteger o tráfego HTTP/S de entrada da internet.</t>
+          <t>Configure os provedores de segurança SaaS parceiros suportados dentro do Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,14 +5244,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas Azure Front Door e WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada a uma zona de pouso.</t>
+          <t>Use o WAF dentro de uma rede virtual de zona de pouso para proteger o tráfego HTTP/S de entrada da internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5284,7 +5289,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5296,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas WAF no Azure Front Door. Bloqueie o Portal de Aplicativos Azure para receber tráfego apenas a partir da Porta da Frente do Azure.</t>
+          <t>Use as políticas Azure Front Door e WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada a uma zona de pouso.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5334,7 +5339,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5346,7 +5351,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs parceiros forem necessários para conexões HTTP/S de entrada, implante-as dentro de uma rede virtual de zona de pouso e, juntamente com os aplicativos que estão protegendo e expondo à internet.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas WAF no Azure Front Door. Bloqueie o Portal de Aplicativos Azure para receber tráfego apenas a partir da Porta da Frente do Azure.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,14 +5394,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de proteção padrão de proteção do Azure DDoS para ajudar a proteger todos os pontos finais públicos hospedados nas redes virtuais.</t>
+          <t>Se os NVAs parceiros forem necessários para conexões HTTP/S de entrada, implante-as dentro de uma rede virtual de zona de pouso e, juntamente com os aplicativos que estão protegendo e expondo à internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5434,19 +5439,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5462,12 +5467,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Realize a entrega de aplicativos dentro de zonas de pouso para aplicativos voltados para internos (corp) e externos (on-line).</t>
+          <t>Use os planos de proteção padrão de proteção do Azure DDoS para ajudar a proteger todos os pontos finais públicos hospedados nas redes virtuais.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5484,19 +5489,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Para uma entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e garanta que a proteção e as políticas do WAF estejam ativadas.</t>
+          <t>Realize a entrega de aplicativos dentro de zonas de pouso para aplicativos voltados para internos (corp) e externos (on-line).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5534,7 +5539,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5546,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use um NVA parceiro se você não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
+          <t>Para uma entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e garanta que a proteção e as políticas do WAF estejam ativadas.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5584,19 +5589,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Implante o Azure Application Gateway v2 ou nVAs parceiros usados para conexões HTTP/S de entrada dentro da rede virtual da zona de pouso e com os aplicativos que eles estão protegendo.</t>
+          <t>Use um NVA parceiro se você não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5634,19 +5639,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use um plano de proteção padrão DDoS para todos os endereços IP públicos em uma zona de pouso.</t>
+          <t>Implante o Azure Application Gateway v2 ou nVAs parceiros usados para conexões HTTP/S de entrada dentro da rede virtual da zona de pouso e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,14 +5694,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com as políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Use um plano de proteção padrão DDoS para todos os endereços IP públicos em uma zona de pouso.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5746,7 +5751,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger os aplicativos HTTP/S, use as políticas WAF na Porta da Frente. Bloqueie o Gateway de aplicativos para receber tráfego apenas na Porta da Frente.</t>
+          <t>Use o Azure Front Door com as políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5784,7 +5789,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5796,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use o Traffic Manager para fornecer aplicativos globais que abrangem protocolos diferentes do HTTP/S.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger os aplicativos HTTP/S, use as políticas WAF na Porta da Frente. Bloqueie o Gateway de aplicativos para receber tráfego apenas na Porta da Frente.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5834,7 +5839,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5846,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,13 +5872,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários só precisam de acesso a aplicativos internos, o Azure AD Application Proxy foi considerado como uma alternativa ao Azure Virtual Desktop (AVD)?</t>
+          <t>Use o Traffic Manager para fornecer aplicativos globais que abrangem protocolos diferentes do HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5884,19 +5889,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5912,18 +5917,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegado criação de sub-rede para o proprietário da zona de pouso. </t>
+          <t>Se os usuários só precisam de acesso a aplicativos internos, o Azure AD Application Proxy foi considerado como uma alternativa ao Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5934,19 +5939,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5962,12 +5967,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões recebidas em sua rede, considere usar o Azure AD Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t xml:space="preserve">Delegado criação de sub-rede para o proprietário da zona de pouso. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5989,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6012,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego em sub-redes, bem como tráfego leste/oeste em toda a plataforma (tráfego entre zonas de pouso).</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões recebidas em sua rede, considere usar o Azure AD Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,19 +6039,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível sub-rede para ajudar a proteger VMs de vários níveis dentro da zona de pouso.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego em sub-redes, bem como tráfego leste/oeste em toda a plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6089,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6101,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microsegmentar o tráfego dentro da zona de pouso e evite usar um NVA central para filtrar fluxos de tráfego.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível sub-rede para ajudar a proteger VMs de vários níveis dentro da zona de pouso.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6134,7 +6139,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6146,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Habilite os registros de fluxo do NSG e alimente-os para o Traffic Analytics para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microsegmentar o tráfego dentro da zona de pouso e evite usar um NVA central para filtrar fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6194,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de pouso.</t>
+          <t>Habilite os registros de fluxo do NSG e alimente-os para o Traffic Analytics para obter insights sobre fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6244,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Para topologias virtuais de WAN, o tráfego de rotas através de zonas de pouso via Firewall Azure se a organização exigir recursos de filtragem e registro para o tráfego fluindo através de zonas de pouso.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de pouso.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,14 +6294,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6312,12 +6317,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Para topologias virtuais de WAN, o tráfego de rotas através de zonas de pouso via Firewall Azure se a organização exigir recursos de filtragem e registro para o tráfego fluindo através de zonas de pouso.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6337,12 +6342,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Se o tráfego entre as regiões do Azure deve ser criptografado, use o peering global VNet para conectar redes virtuais em todas as regiões.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,19 +6389,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6413,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários virtuais de WAN, onde o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway Virtual WAN VPN para estabelecer túneis IPsec sobre o peering privado ExpressRoute. </t>
+          <t>Se o tráfego entre as regiões do Azure deve ser criptografado, use o peering global VNet para conectar redes virtuais em todas as regiões.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,7 +6434,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6442,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6458,12 +6462,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use pacotes de observador de rede para capturar, apesar da janela de captura limitada.</t>
+          <t xml:space="preserve">Para cenários virtuais de WAN, onde o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway Virtual WAN VPN para estabelecer túneis IPsec sobre o peering privado ExpressRoute. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,19 +6484,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos registros de fluxo do NSG fornece o nível de detalhes que você precisa.</t>
+          <t>Use pacotes de observador de rede para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6530,15 +6534,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6559,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que requerem inspeção profunda de pacotes.</t>
+          <t>Avalie se a versão mais recente dos registros de fluxo do NSG fornece o nível de detalhes que você precisa.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6576,14 +6584,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a encorajamos em escala devido à complexidade e às questões de suporte que podem surgir.</t>
+          <t>Use soluções de parceiros para cenários que requerem inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6621,7 +6629,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6629,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6640,17 +6648,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e Conectividade de Rede</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use um único monitor logs workspace para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em papel do Azure (Azure RBAC), requisitos de soberania de dados ou políticas de retenção de dados mandam espaços de trabalho separados.</t>
+          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a encorajamos em escala devido à complexidade e às questões de suporte que podem surgir.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6667,19 +6675,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Use um único monitor logs workspace para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em papel do Azure (Azure RBAC), requisitos de soberania de dados ou políticas de retenção de dados mandam espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,13 +6719,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Os logs de exportação para o Armazenamento Azure se os requisitos de retenção de log excederem dois anos. Use armazenamento imutável com uma política de gravação-uma-vez, leia-muitas para tornar os dados não apagados e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6757,21 +6769,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
+          <t>Os logs de exportação para o Armazenamento Azure se os requisitos de retenção de log excederem dois anos. Use armazenamento imutável com uma política de gravação-uma-vez, leia-muitas para tornar os dados não apagados e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6821,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6842,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitore a configuração da máquina virtual in-guest (VM) drift usando a Política Azure. Habilitar recursos de auditoria de configuração de hóspedes por meio de políticas ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente recursos de recursos com pouco esforço.</t>
+          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6859,19 +6863,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Update Management em Automação Azure como um mecanismo de patching de longo prazo para VMs Windows e Linux. </t>
+          <t>Monitore a configuração da máquina virtual in-guest (VM) drift usando a Política Azure. Habilitar recursos de auditoria de configuração de hóspedes por meio de políticas ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6909,19 +6913,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use o Network Watcher para monitorar proativamente os fluxos de tráfego</t>
+          <t xml:space="preserve">Use o Update Management em Automação Azure como um mecanismo de patching de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6959,19 +6963,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Use o Network Watcher para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7009,19 +7013,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7042,13 +7046,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de papel do Azure. A combinação de políticas de negação e atribuições de papel do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7059,14 +7063,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7087,13 +7096,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Inclua eventos de saúde de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a saúde do serviço e dos recursos sob a perspectiva da plataforma é um componente importante da gestão de recursos no Azure.</t>
+          <t>Use políticas de negação para complementar as atribuições de papel do Azure. A combinação de políticas de negação e atribuições de papel do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7104,14 +7113,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7132,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma Azure Service Health para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Inclua eventos de saúde de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a saúde do serviço e dos recursos sob a perspectiva da plataforma é um componente importante da gestão de recursos no Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7149,14 +7158,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7177,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Não envie entradas de log bruto de volta para sistemas de monitoramento no local. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se for necessária a integração do SIEM no local, envie alertas críticos em vez de logs.</t>
+          <t>Inclua alertas e grupos de ação como parte da plataforma Azure Service Health para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7194,14 +7203,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas dos recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o Azure RBAC.</t>
+          <t>Não envie entradas de log bruto de volta para sistemas de monitoramento no local. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se for necessária a integração do SIEM no local, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7239,14 +7248,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7267,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use logs do Azure Monitor para obter informações e relatórios.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas dos recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7284,14 +7293,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7312,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhada dentro da zona de pouso para armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Use logs do Azure Monitor para obter informações e relatórios.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7329,14 +7338,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7357,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhada dentro da zona de pouso para armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7374,14 +7383,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Empregue cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7419,14 +7428,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres de serviço PaaS.</t>
+          <t>Empregue cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7464,14 +7473,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7492,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Azure Backup e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres de serviço PaaS.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7509,14 +7518,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7527,23 +7536,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
+          <t>Use recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Azure Backup e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7554,14 +7563,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7572,17 +7581,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes cofres de chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transações e restringir o acesso a segredos.</t>
+          <t>Certifique-se de que os requisitos de monitoramento foram avaliados e que configurações adequadas de coleta e alerta de dados sejam aplicadas</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7599,14 +7608,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7627,13 +7636,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
+          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7644,14 +7653,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégio mínimo limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas do Azure Active Directory (Azure AD) personalizadas.</t>
+          <t>Use diferentes cofres de chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transações e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7689,14 +7698,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7717,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gestão e renovação de certificados com as autoridades públicas de certificados para facilitar a administração.</t>
+          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7741,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7762,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Siga um modelo de privilégio mínimo limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas do Azure Active Directory (Azure AD) personalizadas.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7786,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7807,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Habilite o ponto final do serviço de rede virtual e firewall ou ponto final privado no cofre para controlar o acesso ao cofre da chave.</t>
+          <t>Automatize o processo de gestão e renovação de certificados com as autoridades públicas de certificados para facilitar a administração.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7831,7 +7840,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar a chave, o certificado e o uso secreto em cada instância do Key Vault.</t>
+          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7869,14 +7878,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7897,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>A instantaneidade do Projeto de Lei do Cofre de Chaves e o acesso privilegiado e o uso da Política Azure para impor uma configuração consistente em conformidade.</t>
+          <t>Habilite o ponto final do serviço de rede virtual e firewall ou ponto final privado no cofre para controlar o acesso ao cofre da chave.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7921,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7942,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar a chave, o certificado e o uso secreto em cada instância do Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7959,14 +7968,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
+          <t>A instantaneidade do Projeto de Lei do Cofre de Chaves e o acesso privilegiado e o uso da Política Azure para impor uma configuração consistente em conformidade.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8011,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implementar mitigação relevante para que as inconsistências não atuem os resultados desejados. Escolha pares de regiões apropriadas e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8049,14 +8058,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8072,18 +8081,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Alavancar a Política Azure</t>
+          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8094,14 +8103,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8117,12 +8126,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identifique as tags Azure necessárias e use o modo de política de apêndice para impor o uso.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implementar mitigação relevante para que as inconsistências não atuem os resultados desejados. Escolha pares de regiões apropriadas e regiões de recuperação de desastres que minimizem a latência.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8139,14 +8148,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8167,13 +8176,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Mapear os requisitos regulatórios e de conformidade para definições de políticas azure e atribuições de papéis do Azure.</t>
+          <t>Alavancar a Política Azure</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8191,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça definições de políticas Azure no grupo de gerenciamento de raízes de alto nível para que possam ser atribuídos em escopos herdados</t>
+          <t>Identifique as tags Azure necessárias e use o modo de política de apêndice para impor o uso.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8229,14 +8238,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8257,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no mais alto nível apropriado com exclusões em níveis inferiores, se necessário</t>
+          <t>Mapear os requisitos regulatórios e de conformidade para definições de políticas azure e atribuições de papéis do Azure.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8281,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8302,13 +8311,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use a Política Azure para controlar registros de provedores de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Estabeleça definições de políticas Azure no grupo de gerenciamento de raízes de alto nível para que possam ser atribuídos em escopos herdados</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8326,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use políticas incorporadas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Gerenciar atribuições de políticas no mais alto nível apropriado com exclusões em níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8371,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8392,13 +8401,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Atribua o papel de contribuinte de políticas incorporada em um escopo específico para permitir a governança em nível de aplicativo.</t>
+          <t>Use a Política Azure para controlar registros de provedores de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8416,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8437,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de atribuições de políticas do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento através de exclusões em escopos herdados.</t>
+          <t>Use políticas incorporadas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8461,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8482,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software através de extensões VM e impor uma configuração VM de linha de base compatível.</t>
+          <t>Atribua o papel de contribuinte de políticas incorporada em um escopo específico para permitir a governança em nível de aplicativo.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8499,14 +8508,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>A configuração de segurança do Monitor VM deriva através da Política Azure.</t>
+          <t>Limitar o número de atribuições de políticas do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento através de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8544,14 +8553,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8567,12 +8576,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software através de extensões VM e impor uma configuração VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8589,14 +8598,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8612,12 +8621,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para logs de monitor do Azure para retenção de dados de longo prazo. Exportar para o Armazenamento Azure para armazenamento a longo prazo após dois anos, se necessário.</t>
+          <t>A configuração de segurança do Monitor VM deriva através da Política Azure.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8634,14 +8643,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8679,14 +8688,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitore a deriva de correção do sistema operacional base através de Logs de Monitor Azure e Defender for Cloud.</t>
+          <t>Exporte logs de atividade do Azure para logs de monitor do Azure para retenção de dados de longo prazo. Exportar para o Armazenamento Azure para armazenamento a longo prazo após dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8724,14 +8733,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8769,14 +8778,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8797,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir a produção.</t>
+          <t>Monitore a deriva de correção do sistema operacional base através de Logs de Monitor Azure e Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8814,14 +8823,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8842,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implementar uma abordagem de confiança zero para acesso à plataforma Azure, quando for o caso.</t>
+          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8859,14 +8868,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8887,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Planeje como novos serviços azure serão implementados</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir a produção.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8911,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8932,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Planeje como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Implementar uma abordagem de confiança zero para acesso à plataforma Azure, quando for o caso.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8949,14 +8958,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8965,30 +8974,90 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Planeje como novos serviços azure serão implementados</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Planeje como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
@@ -11035,7 +11104,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
+          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enusre que todos os proprietários de assinaturas e a equipe do núcleo de TI estão cientes das limitações de suporte de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Certifique-se de que todos os proprietários de assinaturas e a equipe do núcleo de TI estejam cientes das limitações de suporte de assinatura como parte das sessões de design de carga de trabalho.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Impor o uso de instâncias reservadas para priorizar a capacidade reservada nas regiões requeridas. Em seguida, a carga horária terá a capacidade necessária mesmo quando houver uma alta demanda por esse recurso em uma região específica.</t>
+          <t>Use instâncias reservadas quando apropriado para otimizar custos e garantir a capacidade disponível nas regiões-alvo. Aplique o uso de SKUs VM de instância reservada adquirida através da Política Azure.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -9064,330 +9064,990 @@
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Topologia e Conectividade de Rede</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use TLS de ponta a ponta com a porta frontal do Azure. Use o TLS para conexões de seus clientes até a Porta da Frente e da Porta da Frente até a sua origem.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use http para redirecionamento HTTPS com a Porta da Frente do Azure. Apoie clientes mais velhos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use certificados TLS gerenciados com a Porta da Frente Azure. Reduzir o custo operacional e o risco de paralisações devido às renovações de certificados.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual do certificado.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Topologia e Conectividade de Rede</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Habilite o WAF da porta frontal do Azure. Proteja sua aplicação contra uma série de ataques.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Topologia e Conectividade de Rede</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Desabilite as sondas de saúde quando há apenas uma origem em um grupo de origem do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Topologia e Conectividade de Rede</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Selecione bons pontos finais da sonda de saúde para a Porta da Frente do Azure. Considere construir pontos finais de saúde que verifiquem todas as dependências do seu aplicativo.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Topologia e Conectividade de Rede</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use sondas de saúde HEAD com Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Sintonize o WAF da Porta da Frente do Azure para sua carga de trabalho. Reduza as detecções falsas positivas.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use o modo de prevenção com o WAF da Porta frontal do Azure. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Defina a configuração WAF da porta frontal do Azure como código. Usando código, você pode adotar mais facilmente novas versões de regras e obter proteção adicional.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Habilitar os conjuntos de regras padrão WAF da porta da frente do Azure. A regra padrão define detectar e bloquear ataques comuns.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Habilite as regras de gerenciamento de bots WAF da Porta frontal do Azure. As regras do bot detectam bots bons e ruins.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use as versões mais recentes do Azure Front Door WAF. As atualizações do ruleset são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Adicionar limitação de taxa ao WAF da Porta da Frente do Azure. A limitação da taxa bloqueia os clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF da porta frontal do Azure. Limites de limite de alta taxa evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Tráfego de geofiltramento usando o WAF da Porta frontal do Azure. Permitir o tráfego apenas de regiões esperadas e bloquear o tráfego de outras regiões.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Especifique a localização desconhecida (ZZ) ao filtrar geofiltrar o tráfego com o WAF da Porta frontal do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não podem ser geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Gestão e Monitoramento</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar os registros waf da porta da frente do Azure. Revise regularmente os registros para verificar ataques e para detecções falsas positivas.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Gestão e Monitoramento</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Porta da Frente</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Envie os registros do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria da Porta Frontal em seu ambiente geral do Azure.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -11104,7 +11764,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>AC6A9E01-E6A8-43DE-9DE3-2C1992481607</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -4151,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>F29812B2-363C-4EFE-879B-599DE0D5973C</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de proteção padrão de proteção do Azure DDoS para ajudar a proteger todos os pontos finais públicos hospedados nas redes virtuais.</t>
+          <t>Use planos de proteção Azure DDoS Network ou IP Protection para ajudar a proteger os pontos finais do Public IP Addresses dentro das redes virtuais.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use um plano de proteção padrão DDoS para todos os endereços IP públicos em uma zona de pouso.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de pouso de aplicativos.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Empregue cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
+          <t>Use a recuperação do site do Azure para cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinaturas e a equipe do núcleo de TI estejam cientes das limitações de suporte de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Certifique-se de que todos os proprietários de assinaturas e a equipe do núcleo de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisão da zona de desembarque do Azure</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Implementar para contas de acesso de emergência ou de vidro de quebra para evitar o bloqueio de conta em todo o inquilino</t>
+          <t>Implemente para acesso de emergência ou contas de quebra de vidro para evitar o bloqueio de conta em todo o locatário</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Imponha um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
+          <t>Impor um modelo RBAC para grupos de gerenciamento, assinaturas, grupos de recursos e recursos</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Impor políticas de acesso condicional ao Azure AD para qualquer usuário com direitos a ambientes Azure</t>
+          <t>Impor políticas de acesso condicional do Azure AD para qualquer usuário com direitos para ambientes do Azure</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Imponha autenticação multifatorial para qualquer usuário com direitos aos ambientes Azure</t>
+          <t>Impor autenticação multifator para qualquer usuário com direitos para os ambientes do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de pouso com base nos requisitos de função e segurança</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Impor o Azure AD Privileged Identity Management (PIM) para estabelecer acesso permanente zero e menos privilégio</t>
+          <t>Impor o MIM (Gerenciamento de Identidades Privilegiadas) do Azure AD para estabelecer zero acesso permanente e privilégio mínimo</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Trabalho ou conta escolar para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Só use grupos para atribuir permissões. Adicione grupos no local ao grupo somente Azure-AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo somente do Azure AD se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3rd-45e8-a68e-1d76667313b4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Considere usar funções personalizadas do Azure para as seguintes funções-chave: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário de assinatura, proprietário de aplicativos</t>
+          <t>Considere o uso de funções personalizadas do Azure para as seguintes funções principais: proprietário da plataforma Azure, gerenciamento de rede, operações de segurança, proprietário da assinatura, proprietário do aplicativo</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Se houver quaisquer requisitos de soberania de dados, as Políticas Azure podem ser implantadas para aplicá-las</t>
+          <t>Se existirem requisitos de soberania de dados, as Políticas do Azure poderão ser implantadas para aplicá-los</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Se o Azure Active Directory Domains Services (AADDS) estiver em uso, implante o AADDS dentro da região primária, porque esse serviço só pode ser projetado em uma assinatura</t>
+          <t>Se os AADDS (Serviços de Domínios Active Directory) do Azure estiverem em uso, implante AADDS na região primária, pois esse serviço só poderá ser projetado em uma assinatura</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Se o AADDS estiver em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Se AADDS em uso, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d0018</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários podem acessar o controlador de domínio correto?</t>
+          <t>Se o AD no servidor Windows estiver em uso, todos os recursos necessários poderão acessar o controlador de domínio correto?</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>AC6A9E01-E6A8-43DE-9DE3-2C1992481607</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Considere usar o Azure AD Application Proxy como VPN ou substituição reversa de proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Considere o uso do Proxy de Aplicativo do Azure AD como uma substituição de VPN ou proxy reverso para oferecer aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas no local para atribuições de papel do Azure AD.</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função do Azure AD.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1845,7 +1845,7 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Impor hierarquia de grupo de gestão razoavelmente plana com não mais do que três a quatro níveis, idealmente</t>
+          <t>Impor hierarquia de grupo de gerenciamento razoavelmente plana com não mais de três a quatro níveis, idealmente</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1895,7 +1895,7 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Aplicar ou anexar tags de recursos através da Política Azure</t>
+          <t>Impor ou acrescentar marcas de recurso por meio da Política do Azure</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1945,7 +1945,7 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Imponha um grupo de gerenciamento de caixas de areia para permitir que os usuários experimentem imediatamente com o Azure</t>
+          <t>Impor um grupo de gerenciamento de área restrita para permitir que os usuários experimentem imediatamente o Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1995,7 +1995,7 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Imponha um grupo de gerenciamento de plataformas sob o grupo de gerenciamento raiz para apoiar a política de plataforma comum e a atribuição de papel do Azure</t>
+          <t>Impor um grupo de gerenciamento de plataforma sob o grupo de gerenciamento raiz para dar suporte à política de plataforma comum e à atribuição de função do Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2045,7 +2045,7 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento da Plataforma para hospedar um hub Azure Virtual WAN, DNS (Domain Name System, sistema de nomes de domínio privado), circuito ExpressRoute e outros recursos de rede.</t>
+          <t>Imponha uma assinatura de conectividade dedicada no grupo de gerenciamento de Plataforma para hospedar um hub WAN Virtual do Azure, DNS (Sistema de Nomes de Domínio) privado, circuito de Rota Expressa e outros recursos de rede.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2095,7 +2095,7 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Não impor assinaturas são colocadas sob o grupo de gerenciamento raiz</t>
+          <t>Impor que nenhuma assinatura seja colocada sob o grupo de gerenciamento raiz</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2140,7 +2140,7 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Imponha que apenas usuários privilegiados possam operar grupos de gerenciamento no inquilino, permitindo a autorização do Azure RBAC nas configurações de hierarquia do grupo de gerenciamento</t>
+          <t>Impor que somente usuários privilegiados possam operar grupos de gerenciamento no locatário habilitando a autorização RBAC do Azure nas configurações de hierarquia do grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2185,7 +2185,7 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Imponha grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
+          <t>Aplique grupos de gerenciamento sob o grupo de gerenciamento de nível raiz para representar os tipos de cargas de trabalho, com base em suas necessidades de segurança, conformidade, conectividade e recursos.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2230,7 +2230,7 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Impor um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão orçamentária, conformidade com a política e correção quando necessário.</t>
+          <t>Aplique um processo para conscientizar os proprietários de recursos sobre suas funções e responsabilidades, revisão de acesso, revisão de orçamento, conformidade com políticas e correção quando necessário.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2275,7 +2275,7 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os proprietários de assinaturas e a equipe do núcleo de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design de carga de trabalho.</t>
+          <t>Certifique-se de que todos os proprietários de assinatura e a equipe principal de TI estejam cientes das limitações de recursos de assinatura como parte das sessões de design da carga de trabalho.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2321,7 +2321,7 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use instâncias reservadas quando apropriado para otimizar custos e garantir a capacidade disponível nas regiões-alvo. Aplique o uso de SKUs VM de instância reservada adquirida através da Política Azure.</t>
+          <t>Use Instâncias Reservadas, quando apropriado, para otimizar os custos e garantir a capacidade disponível nas regiões de destino. Imponha o uso de SKUs de VM de Instância Reservada adquiridas por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2371,7 +2371,7 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Imponha um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
+          <t>Impor um painel, pasta de trabalho ou processo manual para monitorar os níveis de capacidade usados</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2421,7 +2421,7 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os serviços e recursos necessários estejam disponíveis nas regiões de implantação escolhidas</t>
+          <t>Verifique se os serviços e recursos necessários estão disponíveis nas regiões de implantação escolhidas</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2471,7 +2471,7 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Impor um processo de gestão de custos</t>
+          <t>Impor um processo para gerenciamento de custos</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2521,7 +2521,7 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Se aD no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo de gerenciamento da Plataforma para hospedar controladores de domínio do Windows Server Active Directory</t>
+          <t>Se o AD estiver no Windows Server, estabeleça uma assinatura de identidade dedicada no grupo Gerenciamento de plataforma para hospedar controladores de domínio do Active Directory do Windows Server</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2571,7 +2571,7 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Garantir que as etiquetas sejam usadas para faturamento e gerenciamento de custos</t>
+          <t>Garantir que as tags sejam usadas para faturamento e gerenciamento de custos</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2621,7 +2621,7 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de não haver espaços de endereço IP sobrepostos em todas as regiões do Azure e locais no local</t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2671,7 +2671,7 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo /16) </t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2771,7 +2771,7 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que não há faixa de endereço IP público (bloco CIDR) para VNETs, especialmente se não for propriedade de sua organização</t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2821,7 +2821,7 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evite usar faixas de endereço IP sobrepostas para locais de produção e DR.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2871,7 +2871,7 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes onde a resolução de nomes no Azure é tudo o que é necessário, use O Azure Private DNS para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2921,7 +2921,7 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes onde a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado do Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Configure as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2971,7 +2971,7 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que requerem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -3017,7 +3017,7 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático do Azure DNS para gerenciar automaticamente o ciclo de vida dos registros de DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3067,7 +3067,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Considere o VIRTUAL WAN para gerenciamento simplificado de rede do Azure e certifique-se de que seu cenário seja explicitamente descrito na lista de projetos de roteamento VIRTUAL WAN</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3117,7 +3117,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use um hub virtual wan por região do Azure para conectar várias zonas de pouso em todas as regiões do Azure através de um WAN virtual global comum.</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3162,7 +3162,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de roteamento do Hub Virtual para aumentar ainda mais o tráfego entre VNets e filiais.</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3208,7 +3208,7 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Conecte hubs VIRTUAIS WAN a datacenters no local usando o ExpressRoute</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3258,7 +3258,7 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub virtual WAN mais próximo via VPN local-a-site ou habilite a conectividade de filiais ao VIRTUAL WAN através de uma solução de parceiro SD-WAN.</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3308,7 +3308,7 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN virtual através de uma VPN ponto a ponto.</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3358,7 +3358,7 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio 'tráfego no Azure permanece no Azure' para que a comunicação entre os recursos no Azure ocorra através da rede backbone da Microsoft</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3404,7 +3404,7 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Para proteger e filtrar de tráfego na Internet de saída, implante o Azure Firewall</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3454,7 +3454,7 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs no VWAN, verifique a configuração com a orientação do fornecedor parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3499,7 +3499,7 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os recursos do Azure Virtual WAN e do Firewall Azure sejam criados na assinatura de conectividade.</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3544,7 +3544,7 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que a arquitetura de rede está dentro dos limites do Azure Virtual WAN.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3589,7 +3589,7 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights for Virtual WAN para monitorar a topologia completa da WAN virtual, status e métricas-chave.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3634,17 +3634,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia tradicional de rede hub-and-spoke para os seguintes cenários: uma arquitetura de rede implantada dentro de uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de pouso em todas as regiões; uma arquitetura de rede que abrange várias regiões do Azure com pares globais de VNet usados para conectar redes virtuais em regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é o ExpressRoute, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3684,17 +3684,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Garanta que os serviços compartilhados, incluindo gateways ExpressRoute, gateways VPN e Firewall Azure ou NVAs parceiros na rede virtual central. Se necessário, também implante controladores de domínio active Directory e servidores DNS.</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3729,17 +3729,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga a orientação do fornecedor parceiro</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3774,17 +3774,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Azure Application Gateway, como um serviço compartilhado na rede virtual central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de pouso.</t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3820,17 +3820,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways ExpressRoute e VPN, use o Azure Route Server.</t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3866,17 +3866,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias de hub-and-spoke em todas as regiões do Azure, use o Global Virtual Network Peering para conectar redes virtuais da zona de pouso quando um pequeno número de zonas de pouso precisa se comunicar entre regiões. </t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3916,17 +3916,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implantar uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de pouso em todas as regiões é necessária, use o ExpressRoute com circuitos duplos para fornecer conectividade de trânsito para redes virtuais da zona de pouso em todas as regiões do Azure. </t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3966,12 +3966,12 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
@@ -4016,17 +4016,17 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hub e falou</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke para a rede virtual central hub, considere os limites de peering da VNet e o número máximo de prefixos que podem ser anunciados via ExpressRoute</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4062,7 +4062,7 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que você investigou a possibilidade de usar o ExpressRoute como conexão primária com o Azure.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4112,7 +4112,7 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Quando você usar vários circuitos ExpressRoute ou vários locais no prem, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4151,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>F29812B2-363C-4EFE-879B-599DE0D5973C</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4162,7 +4162,7 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando o SKU certo para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4212,7 +4212,7 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway ExpressRoute redundante de zona nas regiões do Azure suportadas.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4262,7 +4262,7 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que requerem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4312,7 +4312,7 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Quando a baixa latência é necessária ou a transferência de on-premises para o Azure deve ser superior a 10 Gbps, permita que o FastPath contorne o gateway ExpressRoute a partir do caminho de dados.</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4362,7 +4362,7 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar ramos ou locais remotos ao Azure. Para maior resiliência, implante gateways redundantes de zona (quando disponível).</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4412,7 +4412,7 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use o ExpressRoute Global Reach para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via ExpressRoute.</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4462,7 +4462,7 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessário isolamento de tráfego ou largura de banda dedicada, como separar ambientes de produção e não produção, use diferentes circuitos ExpressRoute. Ele ajudará você a garantir domínios isolados de roteamento e aliviar riscos de vizinhos barulhentos.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando métricas incorporadas do Azure Monitor.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4562,7 +4562,7 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos ExpressRoute de um único local de observação. Isso cria um único ponto de falha e torna a organização suscetível a paralisações de localização.</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4662,7 +4662,7 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada para serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4712,7 +4712,7 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Os serviços Azure PaaS que foram injetados em uma rede virtual ainda realizam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4762,7 +4762,7 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use o Private Link, quando disponível, para serviços Azure PaaS compartilhados.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4812,7 +4812,7 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços Azure PaaS a partir de locais via ExpressRoute peering privado. Esse método evita transitar pela internet pública.</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4862,7 +4862,7 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use pontos finais de serviço de rede virtual quando o Private Link não estiver disponível</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4912,7 +4912,7 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos finais de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4962,7 +4962,7 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos finais de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use filtragem de NVA.</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Não implemente túneis forçados para permitir a comunicação dos recursos do Azure para o Azure.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5062,7 +5062,7 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use o Firewall Azure para governar o tráfego de saída do Azure para a internet, conexões de entrada não-HTTP/S e filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5112,7 +5112,7 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use o Firewall Manager com WAN virtual para implantar e gerenciar firewalls do Azure em hubs VIRTUAIS WAN ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral tanto para redes virtuais de WAN quanto para redes virtuais regulares.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5162,7 +5162,7 @@
     <row r="91" ht="16.5" customHeight="1" s="13">
       <c r="A91" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B91" s="22" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Azure Firewall para governar a postura de segurança em todo o ambiente de rede global e atribua-as a todas as instâncias do Azure Firewall. Permitir que políticas granulares atendam aos requisitos de regiões específicas, delegando políticas incrementais de firewall para equipes de segurança locais através do controle de acesso baseado em papéis do Azure.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5201,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7d7b57d0c</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5212,7 +5212,7 @@
     <row r="92" ht="16.5" customHeight="1" s="13">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B92" s="22" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure os provedores de segurança SaaS parceiros suportados dentro do Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger conexões de saída.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5262,7 +5262,7 @@
     <row r="93" ht="16.5" customHeight="1" s="13">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B93" s="22" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF dentro de uma rede virtual de zona de pouso para proteger o tráfego HTTP/S de entrada da internet.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5312,7 +5312,7 @@
     <row r="94" ht="16.5" customHeight="1" s="13">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B94" s="22" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas Azure Front Door e WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada a uma zona de pouso.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5362,7 +5362,7 @@
     <row r="95" ht="16.5" customHeight="1" s="13">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B95" s="22" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas WAF no Azure Front Door. Bloqueie o Portal de Aplicativos Azure para receber tráfego apenas a partir da Porta da Frente do Azure.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5412,7 +5412,7 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs parceiros forem necessários para conexões HTTP/S de entrada, implante-as dentro de uma rede virtual de zona de pouso e, juntamente com os aplicativos que estão protegendo e expondo à internet.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5462,7 +5462,7 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use planos de proteção Azure DDoS Network ou IP Protection para ajudar a proteger os pontos finais do Public IP Addresses dentro das redes virtuais.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5512,7 +5512,7 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Realize a entrega de aplicativos dentro de zonas de pouso para aplicativos voltados para internos (corp) e externos (on-line).</t>
+          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5562,7 +5562,7 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Para uma entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e garanta que a proteção e as políticas do WAF estejam ativadas.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5612,7 +5612,7 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use um NVA parceiro se você não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
+          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5662,7 +5662,7 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Implante o Azure Application Gateway v2 ou nVAs parceiros usados para conexões HTTP/S de entrada dentro da rede virtual da zona de pouso e com os aplicativos que eles estão protegendo.</t>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5712,7 +5712,7 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de pouso de aplicativos.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5762,7 +5762,7 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com as políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5812,7 +5812,7 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger os aplicativos HTTP/S, use as políticas WAF na Porta da Frente. Bloqueie o Gateway de aplicativos para receber tráfego apenas na Porta da Frente.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5862,7 +5862,7 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use o Traffic Manager para fornecer aplicativos globais que abrangem protocolos diferentes do HTTP/S.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5912,7 +5912,7 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários só precisam de acesso a aplicativos internos, o Azure AD Application Proxy foi considerado como uma alternativa ao Azure Virtual Desktop (AVD)?</t>
+          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5962,7 +5962,7 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegado criação de sub-rede para o proprietário da zona de pouso. </t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -6012,7 +6012,7 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões recebidas em sua rede, considere usar o Azure AD Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6062,7 +6062,7 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego em sub-redes, bem como tráfego leste/oeste em toda a plataforma (tráfego entre zonas de pouso).</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6112,7 +6112,7 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs de nível sub-rede para ajudar a proteger VMs de vários níveis dentro da zona de pouso.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6162,7 +6162,7 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microsegmentar o tráfego dentro da zona de pouso e evite usar um NVA central para filtrar fluxos de tráfego.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6212,7 +6212,7 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Habilite os registros de fluxo do NSG e alimente-os para o Traffic Analytics para obter insights sobre fluxos de tráfego internos e externos.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6262,7 +6262,7 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de pouso.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6312,7 +6312,7 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Para topologias virtuais de WAN, o tráfego de rotas através de zonas de pouso via Firewall Azure se a organização exigir recursos de filtragem e registro para o tráfego fluindo através de zonas de pouso.</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6362,7 +6362,7 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
@@ -6407,7 +6407,7 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Se o tráfego entre as regiões do Azure deve ser criptografado, use o peering global VNet para conectar redes virtuais em todas as regiões.</t>
+          <t>Se o tráfego entre regiões do Azure tiver de ser encriptado, utilize o emparelhamento de rede virtual global para ligar redes virtuais entre regiões.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6446,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f16</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6457,7 +6457,7 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários virtuais de WAN, onde o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway Virtual WAN VPN para estabelecer túneis IPsec sobre o peering privado ExpressRoute. </t>
+          <t xml:space="preserve">Para cenários de WAN Virtual em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN WAN Virtual para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6507,7 +6507,7 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use pacotes de observador de rede para capturar, apesar da janela de captura limitada.</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6557,7 +6557,7 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos registros de fluxo do NSG fornece o nível de detalhes que você precisa.</t>
+          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6602,7 +6602,7 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que requerem inspeção profunda de pacotes.</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6648,7 +6648,7 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a encorajamos em escala devido à complexidade e às questões de suporte que podem surgir.</t>
+          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use um único monitor logs workspace para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em papel do Azure (Azure RBAC), requisitos de soberania de dados ou políticas de retenção de dados mandam espaços de trabalho separados.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Os logs de exportação para o Armazenamento Azure se os requisitos de retenção de log excederem dois anos. Use armazenamento imutável com uma política de gravação-uma-vez, leia-muitas para tornar os dados não apagados e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política Azure para relatórios de controle de acesso e conformidade. A Política Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a rápida detecção de violações. </t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Monitore a configuração da máquina virtual in-guest (VM) drift usando a Política Azure. Habilitar recursos de auditoria de configuração de hóspedes por meio de políticas ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente recursos de recursos com pouco esforço.</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Update Management em Automação Azure como um mecanismo de patching de longo prazo para VMs Windows e Linux. </t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use o Network Watcher para monitorar proativamente os fluxos de tráfego</t>
+          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de papel do Azure. A combinação de políticas de negação e atribuições de papel do Azure garante que os guardrails apropriados estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Inclua eventos de saúde de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a saúde do serviço e dos recursos sob a perspectiva da plataforma é um componente importante da gestão de recursos no Azure.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Inclua alertas e grupos de ação como parte da plataforma Azure Service Health para garantir que alertas ou problemas possam ser acionados</t>
+          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Não envie entradas de log bruto de volta para sistemas de monitoramento no local. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se for necessária a integração do SIEM no local, envie alertas críticos em vez de logs.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas dos recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o Azure RBAC.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use logs do Azure Monitor para obter informações e relatórios.</t>
+          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhada dentro da zona de pouso para armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use a recuperação do site do Azure para cenários de recuperação de desastres de máquinas virtuais do Azure-to-Azure. Isso permite replicar cargas de trabalho em todas as regiões.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres de serviço PaaS.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Azure Backup e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os requisitos de monitoramento foram avaliados e que configurações adequadas de coleta e alerta de dados sejam aplicadas</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7626,7 +7626,7 @@
     <row r="142" ht="16.5" customHeight="1" s="13">
       <c r="A142" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B142" s="22" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Key Vault para armazenar seus segredos e credenciais</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7671,7 +7671,7 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes cofres de chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transações e restringir o acesso a segredos.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7716,7 +7716,7 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault com as políticas de exclusão e eliminação suaves habilitadas para permitir proteção de retenção para objetos excluídos.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7761,7 +7761,7 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégio mínimo limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas do Azure Active Directory (Azure AD) personalizadas.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7806,7 +7806,7 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gestão e renovação de certificados com as autoridades públicas de certificados para facilitar a administração.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7851,7 +7851,7 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para rotação de chaves e certificados.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7896,7 +7896,7 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Habilite o ponto final do serviço de rede virtual e firewall ou ponto final privado no cofre para controlar o acesso ao cofre da chave.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7941,7 +7941,7 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar a chave, o certificado e o uso secreto em cada instância do Key Vault.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7986,7 +7986,7 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>A instantaneidade do Projeto de Lei do Cofre de Chaves e o acesso privilegiado e o uso da Política Azure para impor uma configuração consistente em conformidade.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8031,7 +8031,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Padrão para as chaves gerenciadas pela Microsoft para a funcionalidade principal de criptografia e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8076,7 +8076,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chave Azure por aplicativo por ambiente por região.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8121,7 +8121,7 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implementar mitigação relevante para que as inconsistências não atuem os resultados desejados. Escolha pares de regiões apropriadas e regiões de recuperação de desastres que minimizem a latência.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8166,7 +8166,7 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Alavancar a Política Azure</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8211,7 +8211,7 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Identifique as tags Azure necessárias e use o modo de política de apêndice para impor o uso.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8256,7 +8256,7 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Mapear os requisitos regulatórios e de conformidade para definições de políticas azure e atribuições de papéis do Azure.</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8301,7 +8301,7 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça definições de políticas Azure no grupo de gerenciamento de raízes de alto nível para que possam ser atribuídos em escopos herdados</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8346,7 +8346,7 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no mais alto nível apropriado com exclusões em níveis inferiores, se necessário</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8391,7 +8391,7 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use a Política Azure para controlar registros de provedores de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8436,7 +8436,7 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use políticas incorporadas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8481,7 +8481,7 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Atribua o papel de contribuinte de políticas incorporada em um escopo específico para permitir a governança em nível de aplicativo.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8526,7 +8526,7 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de atribuições de políticas do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento através de exclusões em escopos herdados.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8571,7 +8571,7 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software através de extensões VM e impor uma configuração VM de linha de base compatível.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8616,7 +8616,7 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>A configuração de segurança do Monitor VM deriva através da Política Azure.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8661,7 +8661,7 @@
     <row r="165" ht="16.5" customHeight="1" s="13">
       <c r="A165" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B165" s="22" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatórios do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8706,7 +8706,7 @@
     <row r="166" ht="16.5" customHeight="1" s="13">
       <c r="A166" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B166" s="22" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Exporte logs de atividade do Azure para logs de monitor do Azure para retenção de dados de longo prazo. Exportar para o Armazenamento Azure para armazenamento a longo prazo após dois anos, se necessário.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8751,7 +8751,7 @@
     <row r="167" ht="16.5" customHeight="1" s="13">
       <c r="A167" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B167" s="22" t="inlineStr">
@@ -8796,7 +8796,7 @@
     <row r="168" ht="16.5" customHeight="1" s="13">
       <c r="A168" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B168" s="22" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Monitore a deriva de correção do sistema operacional base através de Logs de Monitor Azure e Defender for Cloud.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8841,7 +8841,7 @@
     <row r="169" ht="16.5" customHeight="1" s="13">
       <c r="A169" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B169" s="22" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Conecte configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8886,7 +8886,7 @@
     <row r="170" ht="16.5" customHeight="1" s="13">
       <c r="A170" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B170" s="22" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir a produção.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8931,7 +8931,7 @@
     <row r="171" ht="16.5" customHeight="1" s="13">
       <c r="A171" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B171" s="22" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Implementar uma abordagem de confiança zero para acesso à plataforma Azure, quando for o caso.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8976,7 +8976,7 @@
     <row r="172" ht="16.5" customHeight="1" s="13">
       <c r="A172" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B172" s="22" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Planeje como novos serviços azure serão implementados</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9021,7 +9021,7 @@
     <row r="173" ht="16.5" customHeight="1" s="13">
       <c r="A173" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B173" s="22" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Planeje como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9066,12 +9066,12 @@
     <row r="174" ht="16.5" customHeight="1" s="13">
       <c r="A174" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
@@ -9111,17 +9111,17 @@
     <row r="175" ht="16.5" customHeight="1" s="13">
       <c r="A175" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com a porta frontal do Azure. Use o TLS para conexões de seus clientes até a Porta da Frente e da Porta da Frente até a sua origem.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9156,17 +9156,17 @@
     <row r="176" ht="16.5" customHeight="1" s="13">
       <c r="A176" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use http para redirecionamento HTTPS com a Porta da Frente do Azure. Apoie clientes mais velhos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9206,12 +9206,12 @@
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com a Porta da Frente Azure. Reduzir o custo operacional e o risco de paralisações devido às renovações de certificados.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9251,12 +9251,12 @@
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual do certificado.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9291,12 +9291,12 @@
     <row r="179" ht="16.5" customHeight="1" s="13">
       <c r="A179" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
@@ -9336,17 +9336,17 @@
     <row r="180" ht="16.5" customHeight="1" s="13">
       <c r="A180" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da porta frontal do Azure. Proteja sua aplicação contra uma série de ataques.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9381,17 +9381,17 @@
     <row r="181" ht="16.5" customHeight="1" s="13">
       <c r="A181" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Desabilite as sondas de saúde quando há apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9426,17 +9426,17 @@
     <row r="182" ht="16.5" customHeight="1" s="13">
       <c r="A182" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos finais da sonda de saúde para a Porta da Frente do Azure. Considere construir pontos finais de saúde que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9471,17 +9471,17 @@
     <row r="183" ht="16.5" customHeight="1" s="13">
       <c r="A183" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B183" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use sondas de saúde HEAD com Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9516,17 +9516,17 @@
     <row r="184" ht="16.5" customHeight="1" s="13">
       <c r="A184" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B184" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Sintonize o WAF da Porta da Frente do Azure para sua carga de trabalho. Reduza as detecções falsas positivas.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9561,17 +9561,17 @@
     <row r="185" ht="16.5" customHeight="1" s="13">
       <c r="A185" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B185" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF da Porta frontal do Azure. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9611,12 +9611,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Defina a configuração WAF da porta frontal do Azure como código. Usando código, você pode adotar mais facilmente novas versões de regras e obter proteção adicional.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9651,17 +9651,17 @@
     <row r="187" ht="16.5" customHeight="1" s="13">
       <c r="A187" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Habilitar os conjuntos de regras padrão WAF da porta da frente do Azure. A regra padrão define detectar e bloquear ataques comuns.</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9696,17 +9696,17 @@
     <row r="188" ht="16.5" customHeight="1" s="13">
       <c r="A188" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bots WAF da Porta frontal do Azure. As regras do bot detectam bots bons e ruins.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9741,17 +9741,17 @@
     <row r="189" ht="16.5" customHeight="1" s="13">
       <c r="A189" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do Azure Front Door WAF. As atualizações do ruleset são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9786,17 +9786,17 @@
     <row r="190" ht="16.5" customHeight="1" s="13">
       <c r="A190" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Adicionar limitação de taxa ao WAF da Porta da Frente do Azure. A limitação da taxa bloqueia os clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9831,17 +9831,17 @@
     <row r="191" ht="16.5" customHeight="1" s="13">
       <c r="A191" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF da porta frontal do Azure. Limites de limite de alta taxa evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9876,17 +9876,17 @@
     <row r="192" ht="16.5" customHeight="1" s="13">
       <c r="A192" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Tráfego de geofiltramento usando o WAF da Porta frontal do Azure. Permitir o tráfego apenas de regiões esperadas e bloquear o tráfego de outras regiões.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9921,17 +9921,17 @@
     <row r="193" ht="16.5" customHeight="1" s="13">
       <c r="A193" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Especifique a localização desconhecida (ZZ) ao filtrar geofiltrar o tráfego com o WAF da Porta frontal do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não podem ser geo-matched.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9971,12 +9971,12 @@
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os registros waf da porta da frente do Azure. Revise regularmente os registros para verificar ataques e para detecções falsas positivas.</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10016,12 +10016,12 @@
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Envie os registros do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria da Porta Frontal em seu ambiente geral do Azure.</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -11881,7 +11893,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11908,7 +11920,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11918,7 +11930,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11945,7 +11957,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Compliance</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11955,7 +11967,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11987,7 +11999,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -12009,7 +12021,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Grupo de Gestão e Assinaturas</t>
+          <t>Grupo de Gerenciamento e Assinaturas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12019,7 +12031,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -12053,7 +12065,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Application Deployment</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem com base nos requisitos de função e segurança</t>
+          <t>Impor responsabilidades centralizadas e delegadas para gerenciar recursos implantados dentro da zona de aterrissagem, com base nos requisitos de função e segurança</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -2621,23 +2621,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,19 +2648,15 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="n"/>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2671,17 +2667,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2698,19 +2694,15 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="n"/>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2713,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2748,19 +2740,19 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2771,17 +2763,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t>A zona de pouso está documentada?</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2796,21 +2788,13 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2821,17 +2805,17 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2848,19 +2832,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2871,17 +2855,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2898,19 +2882,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2921,17 +2905,17 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,19 +2932,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2971,17 +2955,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2998,15 +2982,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3017,17 +3005,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3044,19 +3032,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3067,17 +3055,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3094,19 +3082,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3117,23 +3105,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3144,14 +3132,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,17 +3150,17 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3189,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3197,7 +3185,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,17 +3196,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3235,19 +3223,15 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="n"/>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3258,17 +3242,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3285,19 +3269,15 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="n"/>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3308,17 +3288,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3335,19 +3315,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3358,17 +3333,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3385,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3393,7 +3368,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3404,17 +3379,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3431,19 +3406,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3454,17 +3424,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3481,14 +3451,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3499,17 +3469,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3526,14 +3496,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3544,17 +3514,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3571,14 +3541,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3589,17 +3559,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3616,14 +3586,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3634,17 +3604,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gestão e Monitoramento</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3661,19 +3631,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3654,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3711,14 +3676,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3734,12 +3704,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3756,14 +3726,19 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3754,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3801,15 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3804,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3847,15 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3854,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3893,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3904,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3943,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,12 +3954,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3993,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4004,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4043,15 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,18 +4054,18 @@
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4089,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,12 +4104,12 @@
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4139,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4189,19 +4176,15 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="n"/>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,12 +4200,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Se o tráfego entre regiões do Azure tiver de ser encriptado, utilize o emparelhamento de rede virtual global para ligar redes virtuais entre regiões.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4239,19 +4222,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,12 +4250,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t xml:space="preserve">Para cenários de WAN Virtual em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN WAN Virtual para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4289,19 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,18 +4300,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4339,19 +4322,15 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="n"/>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,12 +4346,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4389,19 +4368,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,18 +4392,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4439,19 +4414,15 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="n"/>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,12 +4438,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4489,19 +4460,15 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
-        </is>
-      </c>
-      <c r="I77" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I77" s="16" t="n"/>
       <c r="J77" s="23" t="n"/>
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4539,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,12 +4530,12 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4589,19 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4617,12 +4580,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4639,19 +4602,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,12 +4626,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,19 +4648,15 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I81" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I81" s="16" t="n"/>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,12 +4672,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4739,19 +4694,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,12 +4718,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,12 +4764,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,12 +4814,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4889,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,12 +4864,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4939,19 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4989,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5017,12 +4960,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,19 +4982,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,12 +5010,12 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5089,19 +5032,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,12 +5060,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5139,19 +5082,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,12 +5110,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5189,19 +5132,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,12 +5160,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,19 +5182,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,12 +5210,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5289,19 +5232,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,12 +5260,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5339,19 +5282,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,12 +5310,12 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,19 +5332,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,12 +5360,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5439,19 +5382,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5467,12 +5410,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5489,19 +5432,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5460,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Execute a entrega de aplicativos dentro de zonas de aterrissagem para aplicativos internos (corporativos) e externos (online).</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5539,19 +5482,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5589,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,12 +5560,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5639,7 +5582,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5651,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5610,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,19 +5632,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,12 +5660,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5739,19 +5682,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,12 +5710,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5789,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,12 +5760,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5839,19 +5782,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,12 +5810,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5889,19 +5832,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,18 +5860,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5939,19 +5882,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5967,12 +5910,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5989,19 +5932,15 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicativos</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6039,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,12 +6006,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6089,19 +6028,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,12 +6056,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,19 +6078,15 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,12 +6102,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,19 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,19 +6215,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6317,12 +6243,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6339,7 +6265,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6351,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6367,12 +6293,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6389,14 +6315,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6412,12 +6343,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Se o tráfego entre regiões do Azure tiver de ser encriptado, utilize o emparelhamento de rede virtual global para ligar redes virtuais entre regiões.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6439,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6462,12 +6393,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários de WAN Virtual em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN WAN Virtual para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6484,19 +6415,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6512,12 +6443,12 @@
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6534,19 +6465,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6562,12 +6493,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6584,14 +6515,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6607,12 +6543,12 @@
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6629,15 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6653,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6675,15 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6694,17 +6638,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6721,19 +6665,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6744,17 +6688,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>A zona de pouso está documentada?</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6769,13 +6713,21 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6786,17 +6738,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se os requisitos de retenção de logs excederem dois anos. Use o armazenamento imutável com uma política de gravação única e leitura para tornar os dados não apagáveis e não modificáveis para um intervalo especificado pelo usuário.</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6813,19 +6765,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6836,17 +6788,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6863,19 +6815,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6886,17 +6838,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) convidada usando a Política do Azure. Habilitar os recursos de auditoria de configuração de convidado por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6913,19 +6865,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6936,17 +6888,17 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use o Gerenciamento de Atualizações na Automação do Azure como um mecanismo de aplicação de patches de longo prazo para VMs Windows e Linux. </t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6963,19 +6915,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6986,17 +6938,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Usar o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7013,19 +6965,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,17 +6988,17 @@
     <row r="129" ht="16.5" customHeight="1" s="13">
       <c r="A129" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use bloqueios de recursos para evitar a exclusão acidental de serviços compartilhados críticos.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7063,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7086,23 +7038,23 @@
     <row r="130" ht="16.5" customHeight="1" s="13">
       <c r="A130" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use políticas de negação para complementar as atribuições de função do Azure. A combinação de políticas de negação e atribuições de função do Azure garante que as grades de proteção apropriadas estejam em vigor para impor quem pode implantar e configurar recursos e quais recursos eles podem implantar e configurar.</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7113,14 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7131,17 +7088,17 @@
     <row r="131" ht="16.5" customHeight="1" s="13">
       <c r="A131" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Inclua eventos de integridade de serviços e recursos como parte da solução geral de monitoramento da plataforma. Acompanhar a integridade do serviço e dos recursos da perspectiva da plataforma é um componente importante do gerenciamento de recursos no Azure.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7158,14 +7115,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7176,17 +7138,17 @@
     <row r="132" ht="16.5" customHeight="1" s="13">
       <c r="A132" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas e grupos de ação como parte da plataforma de Integridade do Serviço do Azure para garantir que alertas ou problemas possam ser acionados</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7203,14 +7165,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7221,17 +7188,17 @@
     <row r="133" ht="16.5" customHeight="1" s="13">
       <c r="A133" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Não envie entradas de log brutas de volta para sistemas de monitoramento locais. Em vez disso, adote um princípio de que os dados nascidos no Azure permanecem no Azure. Se a integração do SIEM local for necessária, envie alertas críticos em vez de logs.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7248,14 +7215,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7266,17 +7238,17 @@
     <row r="134" ht="16.5" customHeight="1" s="13">
       <c r="A134" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use um espaço de trabalho centralizado do Azure Monitor Log Analytics para coletar logs e métricas de recursos de aplicativos IaaS e PaaS e controlar o acesso ao log com o RBAC do Azure.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7293,14 +7265,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7311,17 +7288,17 @@
     <row r="135" ht="16.5" customHeight="1" s="13">
       <c r="A135" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para obter insights e relatórios.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7338,14 +7315,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7356,17 +7338,17 @@
     <row r="136" ht="16.5" customHeight="1" s="13">
       <c r="A136" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use contas de armazenamento compartilhado dentro da zona de aterrissagem para o armazenamento de log de extensão de diagnóstico do Azure.</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7383,14 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7401,17 +7388,17 @@
     <row r="137" ht="16.5" customHeight="1" s="13">
       <c r="A137" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7428,14 +7415,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7446,17 +7438,17 @@
     <row r="138" ht="16.5" customHeight="1" s="13">
       <c r="A138" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7473,14 +7465,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7491,17 +7483,17 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar e testar os recursos nativos de recuperação de desastres do serviço PaaS.</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,14 +7510,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7536,17 +7528,17 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure. Verifique se o parceiro/cliente está ciente do Backup do Azure e de todos os novos recursos que podem simplificar muito o gerenciamento de backup</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7563,14 +7555,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7581,17 +7578,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Garantir que os requisitos de monitoramento tenham sido avaliados e que as configurações apropriadas de coleta de dados e alertas sejam aplicadas</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7608,14 +7605,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7626,23 +7628,23 @@
     <row r="142" ht="16.5" customHeight="1" s="13">
       <c r="A142" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7653,14 +7655,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7671,17 +7678,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,14 +7705,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7716,17 +7723,17 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7743,14 +7750,19 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7761,17 +7773,17 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7788,14 +7800,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7806,17 +7818,17 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7833,14 +7845,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7851,17 +7863,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7878,14 +7890,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7896,17 +7908,17 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7923,14 +7935,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7941,23 +7953,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7968,14 +7980,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7986,17 +7998,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8013,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8031,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8058,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8081,18 +8093,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8103,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8126,12 +8138,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8148,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8171,12 +8183,12 @@
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8193,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8216,18 +8228,18 @@
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8238,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8261,18 +8273,18 @@
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8283,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8306,18 +8318,18 @@
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8328,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8351,18 +8363,18 @@
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8373,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8396,18 +8408,18 @@
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8418,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8441,12 +8453,12 @@
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8463,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8486,12 +8498,12 @@
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8508,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8531,18 +8543,18 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8553,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8576,12 +8588,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8598,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8626,13 +8638,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8643,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8666,12 +8678,12 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8688,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8711,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8733,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8756,12 +8768,12 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8778,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8801,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8823,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8846,18 +8858,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8868,14 +8880,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8891,12 +8903,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8913,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8936,12 +8948,12 @@
       </c>
       <c r="B171" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8958,14 +8970,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8981,12 +8993,12 @@
       </c>
       <c r="B172" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9003,14 +9015,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9026,12 +9038,12 @@
       </c>
       <c r="B173" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9048,14 +9060,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9066,23 +9078,23 @@
     <row r="174" ht="16.5" customHeight="1" s="13">
       <c r="A174" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9093,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9116,12 +9128,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9138,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9161,12 +9173,12 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9183,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9201,23 +9213,23 @@
     <row r="177" ht="16.5" customHeight="1" s="13">
       <c r="A177" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
       <c r="E177" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9228,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9246,17 +9258,17 @@
     <row r="178" ht="16.5" customHeight="1" s="13">
       <c r="A178" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9273,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9291,17 +9303,17 @@
     <row r="179" ht="16.5" customHeight="1" s="13">
       <c r="A179" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9318,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9341,18 +9353,18 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
       <c r="E180" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9363,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9381,23 +9393,23 @@
     <row r="181" ht="16.5" customHeight="1" s="13">
       <c r="A181" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9408,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9426,17 +9438,17 @@
     <row r="182" ht="16.5" customHeight="1" s="13">
       <c r="A182" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9453,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9471,23 +9483,23 @@
     <row r="183" ht="16.5" customHeight="1" s="13">
       <c r="A183" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B183" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9498,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9521,18 +9533,18 @@
       </c>
       <c r="B184" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
       <c r="E184" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9543,14 +9555,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9566,18 +9578,18 @@
       </c>
       <c r="B185" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
       <c r="E185" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9588,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9606,17 +9618,17 @@
     <row r="186" ht="16.5" customHeight="1" s="13">
       <c r="A186" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9633,14 +9645,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9656,18 +9668,18 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
       <c r="E187" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9678,14 +9690,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9701,18 +9713,18 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
       <c r="E188" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9723,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9746,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9768,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9791,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9813,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9836,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9858,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9881,18 +9893,18 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
       <c r="E192" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9903,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9926,12 +9938,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9948,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9966,23 +9978,23 @@
     <row r="194" ht="16.5" customHeight="1" s="13">
       <c r="A194" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar os logs do WAF do Azure Front Door. Revise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
       <c r="E194" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9993,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10011,17 +10023,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Gestão e Monitoramento</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Envie logs do Azure Front Door para o Microsoft Sentinel. Detecte ataques e integre a telemetria do Front Door ao seu ambiente geral do Azure.</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10038,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Se o tráfego entre regiões do Azure tiver de ser encriptado, utilize o emparelhamento de rede virtual global para ligar redes virtuais entre regiões.</t>
+          <t xml:space="preserve">Para cenários de WAN Virtual em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN WAN Virtual para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4234,7 +4234,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários de WAN Virtual em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN WAN Virtual para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,19 +4272,15 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="n"/>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4305,13 +4301,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4347,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4364,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4372,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4393,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4410,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4418,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4439,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4456,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4484,18 +4480,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,15 +4502,19 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,7 +4598,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4610,7 +4606,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4690,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4698,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4719,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4736,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4886,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4914,12 +4910,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
@@ -4994,7 +4994,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5044,7 +5044,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,7 +5082,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
@@ -5144,7 +5144,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,7 +5182,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5194,7 +5194,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,7 +5232,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5244,7 +5244,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,7 +5282,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5294,7 +5294,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,7 +5332,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5344,7 +5344,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,7 +5382,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5394,7 +5394,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,7 +5432,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5444,7 +5444,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,7 +5482,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5494,7 +5494,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5594,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5644,7 +5644,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5694,7 +5694,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,7 +5782,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5794,7 +5794,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5885,16 +5885,12 @@
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5915,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5932,15 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,19 +6028,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6061,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6078,7 +6074,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6086,7 +6082,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6143,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6165,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,7 +6215,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6227,7 +6227,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6277,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6327,7 +6327,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6370,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6427,7 +6427,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,7 +6465,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6477,7 +6477,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6670,14 +6670,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6715,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6770,14 +6770,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6877,7 +6877,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6927,7 +6927,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6977,7 +6977,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,7 +7115,7 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7127,7 +7127,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7177,7 +7177,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7270,14 +7270,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7320,14 +7320,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,19 +7415,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7448,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7472,7 +7467,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7493,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7511,13 +7506,18 @@
       <c r="H139" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7617,7 +7617,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7656,18 +7656,13 @@
       <c r="H142" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7688,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7706,13 +7701,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7751,18 +7751,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7807,7 +7802,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7828,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7845,14 +7840,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7873,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7890,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7908,23 +7903,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7935,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7963,13 +7958,13 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7980,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8003,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8025,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8043,7 +8038,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8053,13 +8048,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8070,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8115,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8160,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8188,7 +8183,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8205,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8233,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8250,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8295,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8340,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8368,13 +8363,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8385,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8408,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8475,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,13 +8498,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8520,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8565,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,18 +8583,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8610,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8633,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,7 +8678,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8700,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8752,7 +8747,7 @@
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8797,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,13 +8813,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8842,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8863,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8887,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8908,7 +8903,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8932,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8977,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9010,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9060,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,18 +9078,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,13 +9128,13 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9150,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,7 +9173,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9195,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9242,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9292,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9337,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9382,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9403,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9420,14 +9415,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9448,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9510,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9602,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,12 +9618,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9645,14 +9640,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9668,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9690,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9782,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9820,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9870,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9988,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10012,7 +10007,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10023,41 +10018,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11617,7 +11612,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11701,7 +11696,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11758,43 +11753,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.pt.xlsx
+++ b/spreadsheet/lz_checklist.pt.xlsx
@@ -1122,12 +1122,12 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -1172,12 +1172,12 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1222,12 +1222,12 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
@@ -1272,12 +1272,12 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1322,12 +1322,12 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1372,12 +1372,12 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
@@ -1422,12 +1422,12 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
@@ -1472,12 +1472,12 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1522,12 +1522,12 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1622,12 +1622,12 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
@@ -1672,12 +1672,12 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1722,12 +1722,12 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1772,12 +1772,12 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -1822,12 +1822,12 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
@@ -1922,12 +1922,12 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -1972,12 +1972,12 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
@@ -2022,12 +2022,12 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
@@ -2072,12 +2072,12 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -2167,7 +2167,7 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -2212,7 +2212,7 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -2257,7 +2257,7 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -2302,7 +2302,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2348,12 +2348,12 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2398,12 +2398,12 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
@@ -2498,12 +2498,12 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2548,12 +2548,12 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
@@ -2598,12 +2598,12 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
@@ -2740,12 +2740,12 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2832,12 +2832,12 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2882,12 +2882,12 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2932,12 +2932,12 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -2982,12 +2982,12 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
@@ -3032,12 +3032,12 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3082,12 +3082,12 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -3132,7 +3132,7 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
@@ -3177,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3223,7 +3223,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3269,7 +3269,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3315,7 +3315,7 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
@@ -3360,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3406,7 +3406,7 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
@@ -3496,7 +3496,7 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
@@ -3541,7 +3541,7 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
@@ -3586,7 +3586,7 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
@@ -3631,7 +3631,7 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -3676,12 +3676,12 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Para a entrega segura de aplicativos HTTP/S, verifique se a proteção e as políticas do WAF estão habilitadas em seus Gateways de Aplicativo</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,12 +3726,12 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
+          <t>Verifique se você está usando a SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,19 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+          <t>Use um NVA de parceiro se não puder usar o Application Gateway v2 para a segurança de aplicativos HTTP/S.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para conexões HTTP/S de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos em zonas de aterrissagem de aplicativos.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem regiões do Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3976,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use as políticas do WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente da Porta da Frente.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,19 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,13 +4059,13 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4076,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4109,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Se os usuários só precisarem de acesso a aplicativos internos, o Proxy de Aplicativo do Azure AD foi considerado uma alternativa ao AVD (Área de Trabalho Virtual do Azure)?</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Entrega de aplicativos</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Proxy de Aplicativo do Azure AD para fornecer aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,15 +4176,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4205,7 +4209,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para cenários de WAN Virtual em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN WAN Virtual para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
+          <t>Quando estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia em fluxo.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,19 +4226,15 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="n"/>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
+          <t xml:space="preserve">Para cenários em que o MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre o emparelhamento privado da Rota Expressa. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,15 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4301,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Evite combinar o Azure Traffic Manager e o Azure Front Door.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4318,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4326,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4372,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4393,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
+          <t>Desative os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4418,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4439,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verificam todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4456,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4464,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4480,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Hub e spoke</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door. Reduza o tráfego que o Front Door envia para o seu aplicativo.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
+          <t>Considere um design de rede baseado na topologia de rede hub-and-spoke tradicional para os seguintes cenários: uma arquitetura de rede implantada em uma única região do Azure; uma arquitetura de rede abrange várias regiões do Azure sem necessidade de conectividade transitiva entre redes virtuais para zonas de aterrissagem entre regiões; uma arquitetura de rede que abrange várias regiões do Azure com emparelhamento de rede virtual global usado para conectar redes virtuais entre regiões do Azure; uma arquitetura de rede sem necessidade de conectividade transitiva entre conexões VPN e ExpressRoute; o principal método de conectividade híbrida em vigor é a Rota Expressa, e o número de conexões VPN é inferior a 30 por gateway VPN; há uma dependência de NVAs centralizados e roteamento granular.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,15 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,7 +4585,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
+          <t>Verifique se os serviços compartilhados, incluindo gateways da Rota Expressa, gateways de VPN e Firewall do Azure ou NVAs de parceiros na rede virtual do hub central. Se necessário, implante também controladores de domínio do Active Directory e servidores DNS.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4610,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor do parceiro</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4644,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
+          <t>Não implante serviços L7 de entrada, como o Gateway de Aplicativo do Azure, como um serviço compartilhado na rede virtual do hub central. Em vez disso, implante-os junto com o aplicativo em suas respectivas zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4690,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4698,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
+          <t>Se você precisar de trânsito entre gateways de Rota Expressa e VPN, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4736,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
+          <t xml:space="preserve">Para arquiteturas de rede com várias topologias hub-and-spoke em regiões do Azure, use o Emparelhamento de Rede Virtual Global para conectar redes virtuais de zona de aterrissagem quando um pequeno número de zonas de aterrissagem precisar se comunicar entre regiões. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t xml:space="preserve">Quando você implanta uma arquitetura de rede hub-and-spoke em duas regiões do Azure e a conectividade de trânsito entre todas as zonas de aterrissagem entre regiões é necessária, use a Rota Expressa com circuitos duplos para fornecer conectividade de trânsito para redes virtuais de zona de aterrissagem em regiões do Azure. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,15 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4910,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de rede virtual e o número máximo de prefixos que podem ser anunciados via Rota Expressa</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4960,18 +4960,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub e spoke</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,19 +4982,15 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5011,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão principal com o Azure.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5032,19 +5028,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5061,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Ao usar vários circuitos da Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,19 +5078,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5111,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Verifique se você está usando a SKU correta para os gateways de Rota Expressa/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,19 +5128,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,19 +5178,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5211,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,19 +5228,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5261,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
+          <t>Quando for necessária baixa latência ou a taxa de transferência do local para o Azure deve ser superior a 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa do caminho de dados.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,19 +5278,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5311,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Use gateways VPN para conectar filiais ou locais remotos ao Azure. Para maior resiliência, implante gateways com redundância de zona (quando disponíveis).</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,19 +5328,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5361,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
+          <t>Use o Alcance Global da Rota Expressa para conectar grandes escritórios, sedes regionais ou datacenters conectados ao Azure via Rota Expressa.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,19 +5378,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5411,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,19 +5428,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5461,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
+          <t>Monitore a disponibilidade e a utilização da Rota Expressa usando métricas internas do Azure Monitor.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,19 +5478,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5506,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade em todo o ambiente.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5528,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5560,12 +5556,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Plano IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Não use explicitamente circuitos de Rota Expressa de um único local de emparelhamento. Isso cria um único ponto de falha e torna a organização suscetível a interrupções de local de emparelhamento.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5582,19 +5578,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
+          <t>Garantir que não haja sobreposição de espaços de endereço IP em regiões do Azure e locais locais</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5632,19 +5628,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
+          <t>Certifique-se de usar endereços IP da alocação de endereços para internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5682,19 +5678,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5711,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t xml:space="preserve">Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16) </t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5728,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Garantir que não haja intervalo de endereços IP públicos (bloco CIDR) para VNETs, especialmente se não pertencerem à sua organização</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,19 +5778,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5811,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5832,19 +5828,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5861,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução. Crie uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5882,15 +5878,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, use a infraestrutura DNS existente (por exemplo, DNS integrado ao Active Directory) implantada em pelo menos duas máquinas virtuais (VMs). Defina as configurações de DNS em redes virtuais para usar esses servidores DNS.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5928,19 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,15 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6006,12 +6002,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Inspeção</t>
+          <t>Plano IP</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,15 +6024,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
+          <t>Use os pacotes do Network Watcher para capturar, apesar da janela de captura limitada.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,15 +6074,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6103,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
+          <t>Avalie se a versão mais recente dos logs de fluxo NSG fornece o nível de detalhe de que você precisa.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6143,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
+          <t>Use soluções de parceiros para cenários que exijam inspeção profunda de pacotes.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6165,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspeção</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
+          <t>Não desenvolva uma solução personalizada para espelhar o tráfego. Embora essa abordagem possa ser aceitável para cenários de pequena escala, não a incentivamos em escala devido à complexidade e aos problemas de suporte que podem surgir.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,19 +6215,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
+          <t>Usar o Firewall do Azure para controlar o tráfego de saída do Azure para a Internet, as conexões de entrada não HTTP/S e a filtragem de tráfego Leste/Oeste (se a organização exigir)</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6265,19 +6261,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6294,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
+          <t>Use o Gerenciador de Firewall com WAN Virtual para implantar e gerenciar firewalls do Azure em hubs de WAN Virtual ou em redes virtuais de hub. O Firewall Manager agora está em disponibilidade geral para WAN Virtual e redes virtuais regulares.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6315,19 +6311,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6344,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
+          <t>Crie uma política global do Firewall do Azure para controlar a postura de segurança no ambiente de rede global e atribua-a a todas as instâncias do Firewall do Azure. Permita que políticas granulares atendam aos requisitos de regiões específicas delegando políticas de firewall incrementais a equipes de segurança locais por meio do controle de acesso baseado em função do Azure.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6365,19 +6361,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6394,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
+          <t>Configure provedores de segurança SaaS de parceiros com suporte no Firewall Manager se a organização quiser usar essas soluções para ajudar a proteger as conexões de saída.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,19 +6411,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6444,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Use o WAF em uma rede virtual de zona de aterrissagem para proteger o tráfego HTTP/S de entrada da Internet.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,19 +6461,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6494,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global em todas as regiões do Azure para conexões HTTP/S de entrada em uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6515,19 +6511,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6544,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Ao usar o Azure Front Door e o Azure Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6561,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6589,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
+          <t>Se os NVAs de parceiros forem necessários para conexões HTTP/S de entrada, implante-os em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6611,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6643,12 +6639,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
+          <t>Use os planos de Rede DDoS ou Proteção IP do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6665,19 +6661,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6694,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
+          <t>Se você precisar de comunicação privada com serviços PaaS, considere as diferentes opções disponíveis.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6711,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6744,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
+          <t>Os serviços de PaaS do Azure que foram injetados em uma rede virtual ainda executam operações de plano de gerenciamento usando endereços IP públicos. Certifique-se de que esta comunicação não está quebrada</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6765,19 +6761,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6794,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
+          <t>Use o Link Privado, quando disponível, para serviços compartilhados de PaaS do Azure.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6815,19 +6811,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6844,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
+          <t>Acesse os serviços de PaaS do Azure no local por meio do emparelhamento privado da Rota Expressa. Este método evita o trânsito pela Internet pública.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6865,19 +6861,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6894,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
+          <t>Usar pontos de extremidade de serviço de rede virtual quando o Link Privado não estiver disponível</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6915,19 +6911,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
+          <t>Não habilite pontos de extremidade de serviço de rede virtual por padrão em todas as sub-redes.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6965,19 +6961,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6989,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
+          <t>Não use pontos de extremidade de serviço de rede virtual quando houver preocupações de exfiltração de dados, a menos que você use a filtragem NVA.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7011,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7043,12 +7039,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Segmentação</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
+          <t>Não implemente o túnel forçado para habilitar a comunicação do Azure para os recursos do Azure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7061,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
+          <t xml:space="preserve">Delegue a criação de sub-redes ao proprietário da zona de aterrissagem. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
+          <t>Use NSGs para ajudar a proteger o tráfego entre sub-redes, bem como o tráfego leste/oeste através da plataforma (tráfego entre zonas de pouso).</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,19 +7161,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
+          <t>A equipe de aplicativos deve usar grupos de segurança de aplicativos nos NSGs no nível da sub-rede para ajudar a proteger VMs de várias camadas dentro da zona de aterrissagem.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7215,19 +7211,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7244,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
+          <t>Use NSGs e grupos de segurança de aplicativos para microssegmentar o tráfego dentro da zona de aterrissagem e evite usar um NVA central para filtrar os fluxos de tráfego.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,19 +7261,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7294,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
+          <t>Habilite os logs de fluxo do NSG e alimente-os no Traffic Analytics para obter insights sobre os fluxos de tráfego internos e externos.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,19 +7311,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7339,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
+          <t>Use NSGs para permitir seletivamente a conectividade entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7361,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7393,12 +7389,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentação</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
+          <t>Para topologias de WAN Virtual, roteie o tráfego entre zonas de aterrissagem por meio do Firewall do Azure se a organização exigir recursos de filtragem e log para o tráfego que flui entre zonas de aterrissagem.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,14 +7411,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
+          <t>Considere a WAN Virtual para gerenciamento simplificado de rede do Azure e verifique se o cenário está explicitamente descrito na lista de designs de roteamento da WAN Virtual</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7461,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
+          <t>Use um hub WAN Virtual por região do Azure para conectar várias zonas de aterrissagem entre regiões do Azure por meio de uma WAN Virtual do Azure global comum.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7505,19 +7511,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7539,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
+          <t>Use os recursos de Roteamento de Hub Virtual para segmentar ainda mais o tráfego entre redes virtuais e ramificações.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7555,19 +7556,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7584,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
+          <t>Conectar hubs WAN virtuais a datacenters locais usando a Rota Expressa</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,19 +7601,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7634,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
+          <t>Conecte filiais e locais remotos ao hub WAN Virtual mais próximo por meio de VPN Site a Site ou habilite a conectividade de filiais com a WAN Virtual por meio de uma solução de parceiro SD-WAN.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7655,14 +7651,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7684,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
+          <t>Conecte os usuários ao hub WAN Virtual por meio de uma VPN Ponto a Site.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7700,19 +7701,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
+          <t>Siga o princípio "o tráfego no Azure permanece no Azure" para que a comunicação entre recursos no Azure ocorra por meio da rede de backbone da Microsoft</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7750,14 +7751,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7779,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
+          <t>Para proteção e filtragem do tráfego de saída da Internet, implante o Firewall do Azure</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,14 +7796,19 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
+          <t>Ao implantar tecnologias de rede de parceiros e NVAs na VWAN, verifique a configuração com as diretrizes do fornecedor do parceiro para garantir que não haja configurações conflitantes</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7840,14 +7846,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
+          <t>Verifique se os recursos da WAN Virtual do Azure e do Firewall do Azure são criados na assinatura de conectividade.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7891,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7903,23 +7909,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Verifique se a arquitetura de rede está dentro dos limites da WAN Virtual do Azure.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7930,14 +7936,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,17 +7954,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Porta da frente</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
+          <t>Use o Azure Monitor Insights para WAN Virtual para monitorar a topologia de ponta a ponta da WAN Virtual, o status e as principais métricas.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,14 +7981,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8009,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8026,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8038,7 +8044,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8048,13 +8054,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduza o risco de paralisações causadas pela renovação manual de certificados.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8065,14 +8071,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8089,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Segurança, Governança e Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,7 +8099,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente novas versões de conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8110,14 +8116,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,7 +8144,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Use TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com a Front Door e da Front Door até sua origem.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8155,14 +8161,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8189,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8206,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
+          <t>Habilite o WAF da Porta da Frente do Azure. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8251,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8279,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8296,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
+          <t>Use o modo de prevenção com o WAF do Azure Front Door. O modo de prevenção garante que o WAF bloqueie solicitações maliciosas.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8341,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,13 +8369,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite os conjuntos de regras padrão WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8380,14 +8386,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8414,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilite as regras de gerenciamento de bot WAF do Azure Front Door. As regras do bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8431,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8459,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Use as versões mais recentes do conjunto de regras WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8476,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,13 +8504,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
+          <t>Adicione limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes acidentalmente ou intencionalmente enviando grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8515,14 +8521,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,7 +8549,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t xml:space="preserve">Use um limite alto para limites de taxa WAF do Azure Front Door. Limites de limite de taxa altos evitam bloquear o tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,14 +8566,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8583,18 +8589,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Aproveite a Política do Azure</t>
+          <t>Filtre geograficamente o tráfego usando o WAF do Azure Front Door. Permita o tráfego somente de regiões esperadas e bloqueie o tráfego de outras regiões.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8611,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,12 +8634,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Governança</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8650,14 +8656,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8684,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
+          <t>Aproveite a Política do Azure</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8701,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8729,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
+          <t>Identifique as marcas necessárias do Azure e use o modo de política de acréscimo para impor o uso.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8746,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8774,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
+          <t>Mapeie os requisitos regulatórios e de conformidade para as definições de Política do Azure e as atribuições de função do Azure.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8785,14 +8791,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,13 +8819,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
+          <t>Estabelecer definições de Política do Azure no grupo de gerenciamento raiz de nível superior para que elas possam ser atribuídas em escopos herdados</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8830,14 +8836,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
+          <t>Gerenciar atribuições de políticas no nível mais alto apropriado com exclusões nos níveis inferiores, se necessário</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,14 +8881,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8909,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
+          <t>Usar a Política do Azure para controlar os registros do provedor de recursos nos níveis de assinatura e/ou grupo de gerenciamento</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8926,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
+          <t>Use políticas internas sempre que possível para minimizar a sobrecarga operacional.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8965,14 +8971,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Atribua a função interna de Colaborador de Política em um escopo específico para habilitar a governança no nível do aplicativo.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9010,14 +9016,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
+          <t>Limite o número de atribuições de Política do Azure feitas no escopo do grupo de gerenciamento raiz para evitar o gerenciamento por meio de exclusões em escopos herdados.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9061,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9078,18 +9084,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9100,14 +9106,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,12 +9129,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Governança</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
+          <t>Monitore o desvio da configuração de segurança da VM por meio da Política do Azure.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9145,14 +9151,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9179,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Usar o Cofre da Chave do Azure para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9196,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9224,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes Cofres de Chaves do Azure para diferentes aplicativos e regiões para evitar limites de escala de transação e restringir o acesso a segredos.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9241,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9269,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
+          <t>Provisione o Cofre da Chave do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9280,14 +9286,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9314,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
+          <t>Siga um modelo de privilégios mínimos limitando a autorização para excluir permanentemente chaves, segredos e certificados para funções personalizadas especializadas do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9325,14 +9331,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
+          <t>Automatize o processo de gerenciamento e renovação de certificados com autoridades de certificação públicas para facilitar a administração.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9370,14 +9376,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9404,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
+          <t>Estabeleça um processo automatizado para a rotação de chaves e certificados.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9415,14 +9421,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9449,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
+          <t>Habilite o firewall e o ponto de extremidade do serviço de rede virtual ou o ponto de extremidade privado no cofre para controlar o acesso ao cofre de chaves.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9466,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9494,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Use o espaço de trabalho Azure Monitor Log Analytics central da plataforma para auditar o uso de chave, certificado e segredo em cada instância do Cofre da Chave.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9511,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9539,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
+          <t>Delegue a instanciação do Cofre da Chave e o acesso privilegiado e use a Política do Azure para impor uma configuração consistente e compatível.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9556,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9601,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9618,12 +9624,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
+          <t>Use um Cofre da Chave do Azure por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9640,14 +9646,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9669,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
+          <t>Se você quiser trazer suas próprias chaves, isso pode não ser suportado em todos os serviços considerados. Implemente a mitigação relevante para que as inconsistências não prejudiquem os resultados desejados. Escolha pares de regiões e regiões de recuperação de desastres apropriados que minimizem a latência.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9691,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9719,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
+          <t>Use os recursos de relatório do Azure AD para gerar relatórios de auditoria de controle de acesso.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9736,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9764,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
+          <t>Exporte os logs de atividade do Azure para os Logs do Azure Monitor para retenção de dados a longo prazo. Exporte para o Armazenamento do Azure para armazenamento de longo prazo além de dois anos, se necessário.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9781,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9809,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
+          <t>Habilite o Defender for Cloud Standard para todas as assinaturas.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,14 +9826,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9854,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
+          <t>Monitore o desvio de patches do sistema operacional base por meio do Azure Monitor Logs e do Defender for Cloud.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9871,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9899,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
+          <t>Conecte as configurações de recursos padrão a um espaço de trabalho centralizado do Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9916,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9944,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Planejar como os novos serviços do azure serão implementados</t>
+          <t>Determine o plano de resposta a incidentes para os serviços do Azure antes de permitir que ele entre em produção.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9961,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9989,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+          <t>Implemente uma abordagem de confiança zero para acesso à plataforma Azure, quando apropriado.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10006,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10018,41 +10024,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Segurança, Governança e Conformidade</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Planejar como os novos serviços do azure serão implementados</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10067,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>Segurança, Governança e Conformidade</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Planejar como a solicitação de serviço será atendida para os serviços do Azure</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11825,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
